--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26605"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26611"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A7/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6959" documentId="11_59254FB3F4AABE3ADC949A5AB88E13345563F2D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10F3801F-305B-411A-BBB4-2D2892C653AB}"/>
+  <xr:revisionPtr revIDLastSave="7034" documentId="11_59254FB3F4AABE3ADC949A5AB88E13345563F2D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1A24142-ACF1-4B19-A59C-0E0928423108}"/>
   <bookViews>
     <workbookView xWindow="10368" yWindow="1740" windowWidth="13908" windowHeight="9516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="71">
   <si>
     <t>TRANSACT</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>AH</t>
+  </si>
+  <si>
+    <t>AWC</t>
+  </si>
+  <si>
+    <t>ICHI</t>
   </si>
 </sst>
 </file>
@@ -316,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="189" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -331,6 +337,7 @@
     <xf numFmtId="190" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="189" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,20 +642,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G177"/>
+  <dimension ref="A1:G197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C177" sqref="C177"/>
+      <pane ySplit="2" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F196" sqref="F196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="10" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
     <col min="8" max="11" width="10.140625" style="3"/>
     <col min="12" max="12" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -4178,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="F168" s="9">
-        <f t="shared" ref="F168:F177" si="34">F167-D168+E168</f>
+        <f t="shared" ref="F168:F184" si="34">F167-D168+E168</f>
         <v>33244.929999999993</v>
       </c>
     </row>
@@ -4369,6 +4376,426 @@
       <c r="F177" s="9">
         <f t="shared" si="34"/>
         <v>100618.52</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="15" customHeight="1">
+      <c r="A178" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B178" s="4">
+        <v>45092</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D178" s="6">
+        <v>432</v>
+      </c>
+      <c r="E178" s="6">
+        <v>0</v>
+      </c>
+      <c r="F178" s="9">
+        <f t="shared" si="34"/>
+        <v>100186.52</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="15" customHeight="1">
+      <c r="A179" s="4">
+        <v>45091</v>
+      </c>
+      <c r="B179" s="4">
+        <v>45093</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D179" s="10">
+        <v>0</v>
+      </c>
+      <c r="E179" s="8">
+        <v>24146.400000000001</v>
+      </c>
+      <c r="F179" s="9">
+        <f t="shared" si="34"/>
+        <v>124332.92000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="15" customHeight="1">
+      <c r="A180" s="4">
+        <v>45091</v>
+      </c>
+      <c r="B180" s="4">
+        <v>45093</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D180" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E180" s="6">
+        <v>0</v>
+      </c>
+      <c r="F180" s="9">
+        <f t="shared" si="34"/>
+        <v>124317.94000000002</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="15" customHeight="1">
+      <c r="A181" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B181" s="4">
+        <v>45096</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D181" s="6">
+        <v>0</v>
+      </c>
+      <c r="E181" s="6">
+        <v>2064</v>
+      </c>
+      <c r="F181" s="9">
+        <f t="shared" ref="F181:F194" si="35">F180-D181+E181</f>
+        <v>126381.94000000002</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="15" customHeight="1">
+      <c r="A182" s="4">
+        <v>45092</v>
+      </c>
+      <c r="B182" s="4">
+        <v>45096</v>
+      </c>
+      <c r="C182" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D182" s="10">
+        <v>44738.87</v>
+      </c>
+      <c r="E182" s="8">
+        <v>0</v>
+      </c>
+      <c r="F182" s="9">
+        <f t="shared" si="35"/>
+        <v>81643.070000000007</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="15" customHeight="1">
+      <c r="A183" s="4">
+        <v>45092</v>
+      </c>
+      <c r="B183" s="4">
+        <v>45096</v>
+      </c>
+      <c r="C183" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D183" s="10">
+        <v>45099.67</v>
+      </c>
+      <c r="E183" s="8">
+        <v>0</v>
+      </c>
+      <c r="F183" s="9">
+        <f t="shared" si="35"/>
+        <v>36543.400000000009</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="15" customHeight="1">
+      <c r="A184" s="4">
+        <v>45092</v>
+      </c>
+      <c r="B184" s="4">
+        <v>45096</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D184" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E184" s="6">
+        <v>0</v>
+      </c>
+      <c r="F184" s="9">
+        <f t="shared" si="35"/>
+        <v>36528.420000000006</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="15" customHeight="1">
+      <c r="A185" s="4">
+        <v>45093</v>
+      </c>
+      <c r="B185" s="4">
+        <v>45097</v>
+      </c>
+      <c r="C185" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D185" s="10">
+        <v>0</v>
+      </c>
+      <c r="E185" s="10">
+        <v>76829.45</v>
+      </c>
+      <c r="F185" s="9">
+        <f t="shared" si="35"/>
+        <v>113357.87</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="15" customHeight="1">
+      <c r="A186" s="4">
+        <v>45093</v>
+      </c>
+      <c r="B186" s="4">
+        <v>45097</v>
+      </c>
+      <c r="C186" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D186" s="10">
+        <v>0</v>
+      </c>
+      <c r="E186" s="10">
+        <v>76829.45</v>
+      </c>
+      <c r="F186" s="9">
+        <f t="shared" si="35"/>
+        <v>190187.32</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="15" customHeight="1">
+      <c r="A187" s="4">
+        <v>45093</v>
+      </c>
+      <c r="B187" s="4">
+        <v>45097</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D187" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E187" s="6">
+        <v>0</v>
+      </c>
+      <c r="F187" s="9">
+        <f t="shared" si="35"/>
+        <v>190172.34</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="15" customHeight="1">
+      <c r="A188" s="4">
+        <v>45096</v>
+      </c>
+      <c r="B188" s="4">
+        <v>45098</v>
+      </c>
+      <c r="C188" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D188" s="10">
+        <v>21497.51</v>
+      </c>
+      <c r="E188" s="8">
+        <v>0</v>
+      </c>
+      <c r="F188" s="9">
+        <f t="shared" si="35"/>
+        <v>168674.83</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="15" customHeight="1">
+      <c r="A189" s="4">
+        <v>45092</v>
+      </c>
+      <c r="B189" s="4">
+        <v>45096</v>
+      </c>
+      <c r="C189" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D189" s="10">
+        <v>71708.479999999996</v>
+      </c>
+      <c r="E189" s="8">
+        <v>0</v>
+      </c>
+      <c r="F189" s="9">
+        <f t="shared" si="35"/>
+        <v>96966.349999999991</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="15" customHeight="1">
+      <c r="A190" s="4">
+        <v>45092</v>
+      </c>
+      <c r="B190" s="4">
+        <v>45096</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D190" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E190" s="6">
+        <v>0</v>
+      </c>
+      <c r="F190" s="9">
+        <f t="shared" si="35"/>
+        <v>96951.37</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="15" customHeight="1">
+      <c r="A191" s="4">
+        <v>45097</v>
+      </c>
+      <c r="B191" s="4">
+        <v>45099</v>
+      </c>
+      <c r="C191" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D191" s="10">
+        <v>30667.77</v>
+      </c>
+      <c r="E191" s="8">
+        <v>0</v>
+      </c>
+      <c r="F191" s="9">
+        <f t="shared" si="35"/>
+        <v>66283.599999999991</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="15" customHeight="1">
+      <c r="A192" s="4">
+        <v>45097</v>
+      </c>
+      <c r="B192" s="4">
+        <v>45099</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D192" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E192" s="6">
+        <v>0</v>
+      </c>
+      <c r="F192" s="9">
+        <f t="shared" si="35"/>
+        <v>66268.62</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="15" customHeight="1">
+      <c r="A193" s="4">
+        <v>45098</v>
+      </c>
+      <c r="B193" s="4">
+        <v>45100</v>
+      </c>
+      <c r="C193" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D193" s="10">
+        <v>30667.77</v>
+      </c>
+      <c r="E193" s="8">
+        <v>0</v>
+      </c>
+      <c r="F193" s="9">
+        <f t="shared" si="35"/>
+        <v>35600.849999999991</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="15" customHeight="1">
+      <c r="A194" s="4">
+        <v>45098</v>
+      </c>
+      <c r="B194" s="4">
+        <v>45100</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D194" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E194" s="6">
+        <v>0</v>
+      </c>
+      <c r="F194" s="9">
+        <f t="shared" si="35"/>
+        <v>35585.869999999988</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="15" customHeight="1">
+      <c r="A195" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B195" s="4">
+        <v>45104</v>
+      </c>
+      <c r="C195" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D195" s="10">
+        <v>0</v>
+      </c>
+      <c r="E195" s="10">
+        <v>32028.9</v>
+      </c>
+      <c r="F195" s="9">
+        <f t="shared" ref="F195:F197" si="36">F194-D195+E195</f>
+        <v>67614.76999999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="15" customHeight="1">
+      <c r="A196" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B196" s="4">
+        <v>45104</v>
+      </c>
+      <c r="C196" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D196" s="10">
+        <v>21246.95</v>
+      </c>
+      <c r="E196" s="8">
+        <v>0</v>
+      </c>
+      <c r="F196" s="9">
+        <f t="shared" si="36"/>
+        <v>46367.819999999992</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="15" customHeight="1">
+      <c r="A197" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B197" s="4">
+        <v>45104</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D197" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E197" s="6">
+        <v>0</v>
+      </c>
+      <c r="F197" s="9">
+        <f t="shared" si="36"/>
+        <v>46352.839999999989</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A7/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7034" documentId="11_59254FB3F4AABE3ADC949A5AB88E13345563F2D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1A24142-ACF1-4B19-A59C-0E0928423108}"/>
+  <xr:revisionPtr revIDLastSave="7039" documentId="11_59254FB3F4AABE3ADC949A5AB88E13345563F2D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEBA55C6-B60B-47FB-BDAE-265731D3FAC0}"/>
   <bookViews>
     <workbookView xWindow="10368" yWindow="1740" windowWidth="13908" windowHeight="9516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="71">
   <si>
     <t>TRANSACT</t>
   </si>
@@ -642,11 +642,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G197"/>
+  <dimension ref="A1:G199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F196" sqref="F196"/>
+      <pane ySplit="2" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J199" sqref="J199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1"/>
@@ -4798,6 +4798,48 @@
         <v>46352.839999999989</v>
       </c>
     </row>
+    <row r="198" spans="1:6" ht="15" customHeight="1">
+      <c r="A198" s="4">
+        <v>45103</v>
+      </c>
+      <c r="B198" s="4">
+        <v>45105</v>
+      </c>
+      <c r="C198" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D198" s="10">
+        <v>21246.95</v>
+      </c>
+      <c r="E198" s="8">
+        <v>0</v>
+      </c>
+      <c r="F198" s="9">
+        <f t="shared" ref="F198:F199" si="37">F197-D198+E198</f>
+        <v>25105.889999999989</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="15" customHeight="1">
+      <c r="A199" s="4">
+        <v>45103</v>
+      </c>
+      <c r="B199" s="4">
+        <v>45105</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D199" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E199" s="6">
+        <v>0</v>
+      </c>
+      <c r="F199" s="9">
+        <f t="shared" si="37"/>
+        <v>25090.909999999989</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26704"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A7/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7039" documentId="11_59254FB3F4AABE3ADC949A5AB88E13345563F2D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEBA55C6-B60B-47FB-BDAE-265731D3FAC0}"/>
+  <xr:revisionPtr revIDLastSave="7129" documentId="11_59254FB3F4AABE3ADC949A5AB88E13345563F2D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{860926A0-77DE-4799-AA3B-14C69114F68E}"/>
   <bookViews>
     <workbookView xWindow="10368" yWindow="1740" windowWidth="13908" windowHeight="9516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="74">
   <si>
     <t>TRANSACT</t>
   </si>
@@ -239,6 +239,9 @@
     <t>KTC</t>
   </si>
   <si>
+    <t>หุ้นกู้ JMART</t>
+  </si>
+  <si>
     <t>AH</t>
   </si>
   <si>
@@ -246,6 +249,12 @@
   </si>
   <si>
     <t>ICHI</t>
+  </si>
+  <si>
+    <t>Adjust</t>
+  </si>
+  <si>
+    <t>BBL</t>
   </si>
 </sst>
 </file>
@@ -642,11 +651,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G199"/>
+  <dimension ref="A1:G218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J199" sqref="J199"/>
+      <pane ySplit="2" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A218" sqref="A218:B218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1"/>
@@ -656,7 +665,7 @@
     <col min="4" max="4" width="13.85546875" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="10" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="3" customWidth="1"/>
     <col min="8" max="11" width="10.140625" style="3"/>
     <col min="12" max="12" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="10.140625" style="3"/>
@@ -4038,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="F161" s="9">
-        <f t="shared" ref="F161:F177" si="33">F160-D161+E161</f>
+        <f t="shared" ref="F161:F167" si="33">F160-D161+E161</f>
         <v>104921.18</v>
       </c>
     </row>
@@ -4185,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="F168" s="9">
-        <f t="shared" ref="F168:F184" si="34">F167-D168+E168</f>
+        <f t="shared" ref="F168:F169" si="34">F167-D168+E168</f>
         <v>33244.929999999993</v>
       </c>
     </row>
@@ -4211,45 +4220,45 @@
       </c>
     </row>
     <row r="170" spans="1:6" ht="15" customHeight="1">
-      <c r="A170" s="4">
-        <v>45085</v>
+      <c r="A170" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B170" s="4">
         <v>45089</v>
       </c>
-      <c r="C170" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D170" s="10">
-        <v>0</v>
-      </c>
-      <c r="E170" s="8">
-        <v>25543.3</v>
+      <c r="C170" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" s="6">
+        <v>0</v>
+      </c>
+      <c r="E170" s="6">
+        <v>2956.6</v>
       </c>
       <c r="F170" s="9">
-        <f t="shared" si="34"/>
-        <v>64053.229999999996</v>
+        <f t="shared" ref="F170" si="35">F169-D170+E170</f>
+        <v>41466.529999999992</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="15" customHeight="1">
-      <c r="A171" s="4">
-        <v>45085</v>
+      <c r="A171" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B171" s="4">
         <v>45089</v>
       </c>
-      <c r="C171" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D171" s="10">
-        <v>0</v>
-      </c>
-      <c r="E171" s="8">
-        <v>20953.490000000002</v>
+      <c r="C171" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171" s="6">
+        <v>436</v>
+      </c>
+      <c r="E171" s="6">
+        <v>0</v>
       </c>
       <c r="F171" s="9">
-        <f t="shared" si="34"/>
-        <v>85006.720000000001</v>
+        <f t="shared" ref="F171:F192" si="36">F170-D171+E171</f>
+        <v>41030.529999999992</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="15" customHeight="1">
@@ -4260,17 +4269,17 @@
         <v>45089</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D172" s="10">
-        <v>44498.34</v>
+        <v>0</v>
       </c>
       <c r="E172" s="8">
-        <v>0</v>
+        <v>25543.3</v>
       </c>
       <c r="F172" s="9">
-        <f t="shared" si="34"/>
-        <v>40508.380000000005</v>
+        <f t="shared" si="36"/>
+        <v>66573.829999999987</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="15" customHeight="1">
@@ -4280,60 +4289,60 @@
       <c r="B173" s="4">
         <v>45089</v>
       </c>
-      <c r="C173" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D173" s="6">
-        <v>14.98</v>
-      </c>
-      <c r="E173" s="6">
-        <v>0</v>
+      <c r="C173" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D173" s="10">
+        <v>0</v>
+      </c>
+      <c r="E173" s="8">
+        <v>20953.490000000002</v>
       </c>
       <c r="F173" s="9">
-        <f t="shared" si="34"/>
-        <v>40493.4</v>
+        <f t="shared" si="36"/>
+        <v>87527.319999999992</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="15" customHeight="1">
       <c r="A174" s="4">
-        <v>45086</v>
+        <v>45085</v>
       </c>
       <c r="B174" s="4">
-        <v>45090</v>
+        <v>45089</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="D174" s="10">
-        <v>0</v>
+        <v>44498.34</v>
       </c>
       <c r="E174" s="8">
-        <v>24994.52</v>
+        <v>0</v>
       </c>
       <c r="F174" s="9">
-        <f t="shared" si="34"/>
-        <v>65487.92</v>
+        <f t="shared" si="36"/>
+        <v>43028.979999999996</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="15" customHeight="1">
       <c r="A175" s="4">
-        <v>45086</v>
+        <v>45085</v>
       </c>
       <c r="B175" s="4">
-        <v>45090</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D175" s="10">
-        <v>0</v>
-      </c>
-      <c r="E175" s="8">
-        <v>33525.58</v>
+        <v>45089</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D175" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E175" s="6">
+        <v>0</v>
       </c>
       <c r="F175" s="9">
-        <f t="shared" si="34"/>
-        <v>99013.5</v>
+        <f t="shared" si="36"/>
+        <v>43013.999999999993</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="15" customHeight="1">
@@ -4343,165 +4352,165 @@
       <c r="B176" s="4">
         <v>45090</v>
       </c>
-      <c r="C176" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D176" s="6">
-        <v>14.98</v>
-      </c>
-      <c r="E176" s="6">
-        <v>0</v>
+      <c r="C176" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D176" s="10">
+        <v>0</v>
+      </c>
+      <c r="E176" s="8">
+        <v>24994.52</v>
       </c>
       <c r="F176" s="9">
-        <f t="shared" si="34"/>
-        <v>98998.52</v>
+        <f t="shared" si="36"/>
+        <v>68008.51999999999</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="15" customHeight="1">
-      <c r="A177" s="4" t="s">
-        <v>6</v>
+      <c r="A177" s="4">
+        <v>45086</v>
       </c>
       <c r="B177" s="4">
+        <v>45090</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D177" s="10">
+        <v>0</v>
+      </c>
+      <c r="E177" s="8">
+        <v>33525.58</v>
+      </c>
+      <c r="F177" s="9">
+        <f t="shared" si="36"/>
+        <v>101534.09999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="15" customHeight="1">
+      <c r="A178" s="4">
+        <v>45086</v>
+      </c>
+      <c r="B178" s="4">
+        <v>45090</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D178" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E178" s="6">
+        <v>0</v>
+      </c>
+      <c r="F178" s="7">
+        <f t="shared" si="36"/>
+        <v>101519.12</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="15" customHeight="1">
+      <c r="A179" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B179" s="4">
         <v>45091</v>
       </c>
-      <c r="C177" s="5" t="s">
+      <c r="C179" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D177" s="6">
-        <v>0</v>
-      </c>
-      <c r="E177" s="6">
+      <c r="D179" s="6">
+        <v>0</v>
+      </c>
+      <c r="E179" s="6">
         <v>1620</v>
       </c>
-      <c r="F177" s="9">
-        <f t="shared" si="34"/>
-        <v>100618.52</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="15" customHeight="1">
-      <c r="A178" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B178" s="4">
+      <c r="F179" s="7">
+        <f t="shared" si="36"/>
+        <v>103139.12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="15" customHeight="1">
+      <c r="A180" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B180" s="4">
         <v>45092</v>
       </c>
-      <c r="C178" s="5" t="s">
+      <c r="C180" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D178" s="6">
+      <c r="D180" s="6">
         <v>432</v>
       </c>
-      <c r="E178" s="6">
-        <v>0</v>
-      </c>
-      <c r="F178" s="9">
-        <f t="shared" si="34"/>
-        <v>100186.52</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="15" customHeight="1">
-      <c r="A179" s="4">
+      <c r="E180" s="6">
+        <v>0</v>
+      </c>
+      <c r="F180" s="9">
+        <f t="shared" si="36"/>
+        <v>102707.12</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="15" customHeight="1">
+      <c r="A181" s="4">
         <v>45091</v>
       </c>
-      <c r="B179" s="4">
+      <c r="B181" s="4">
         <v>45093</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="C181" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D179" s="10">
-        <v>0</v>
-      </c>
-      <c r="E179" s="8">
+      <c r="D181" s="10">
+        <v>0</v>
+      </c>
+      <c r="E181" s="8">
         <v>24146.400000000001</v>
       </c>
-      <c r="F179" s="9">
-        <f t="shared" si="34"/>
-        <v>124332.92000000001</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="15" customHeight="1">
-      <c r="A180" s="4">
-        <v>45091</v>
-      </c>
-      <c r="B180" s="4">
-        <v>45093</v>
-      </c>
-      <c r="C180" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D180" s="6">
-        <v>14.98</v>
-      </c>
-      <c r="E180" s="6">
-        <v>0</v>
-      </c>
-      <c r="F180" s="9">
-        <f t="shared" si="34"/>
-        <v>124317.94000000002</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="15" customHeight="1">
-      <c r="A181" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B181" s="4">
-        <v>45096</v>
-      </c>
-      <c r="C181" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D181" s="6">
-        <v>0</v>
-      </c>
-      <c r="E181" s="6">
-        <v>2064</v>
-      </c>
       <c r="F181" s="9">
-        <f t="shared" ref="F181:F194" si="35">F180-D181+E181</f>
-        <v>126381.94000000002</v>
+        <f t="shared" si="36"/>
+        <v>126853.51999999999</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="15" customHeight="1">
       <c r="A182" s="4">
-        <v>45092</v>
+        <v>45091</v>
       </c>
       <c r="B182" s="4">
-        <v>45096</v>
-      </c>
-      <c r="C182" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D182" s="10">
-        <v>44738.87</v>
-      </c>
-      <c r="E182" s="8">
+        <v>45093</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D182" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E182" s="6">
         <v>0</v>
       </c>
       <c r="F182" s="9">
-        <f t="shared" si="35"/>
-        <v>81643.070000000007</v>
+        <f t="shared" si="36"/>
+        <v>126838.54</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="15" customHeight="1">
-      <c r="A183" s="4">
-        <v>45092</v>
+      <c r="A183" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B183" s="4">
         <v>45096</v>
       </c>
-      <c r="C183" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D183" s="10">
-        <v>45099.67</v>
-      </c>
-      <c r="E183" s="8">
-        <v>0</v>
+      <c r="C183" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D183" s="6">
+        <v>0</v>
+      </c>
+      <c r="E183" s="6">
+        <v>2064</v>
       </c>
       <c r="F183" s="9">
-        <f t="shared" si="35"/>
-        <v>36543.400000000009</v>
+        <f t="shared" si="36"/>
+        <v>128902.54</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="15" customHeight="1">
@@ -4511,60 +4520,60 @@
       <c r="B184" s="4">
         <v>45096</v>
       </c>
-      <c r="C184" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D184" s="6">
-        <v>14.98</v>
-      </c>
-      <c r="E184" s="6">
+      <c r="C184" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D184" s="10">
+        <v>44738.87</v>
+      </c>
+      <c r="E184" s="8">
         <v>0</v>
       </c>
       <c r="F184" s="9">
-        <f t="shared" si="35"/>
-        <v>36528.420000000006</v>
+        <f t="shared" si="36"/>
+        <v>84163.669999999984</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="15" customHeight="1">
       <c r="A185" s="4">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="B185" s="4">
-        <v>45097</v>
+        <v>45096</v>
       </c>
       <c r="C185" s="14" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D185" s="10">
-        <v>0</v>
-      </c>
-      <c r="E185" s="10">
-        <v>76829.45</v>
+        <v>45099.67</v>
+      </c>
+      <c r="E185" s="8">
+        <v>0</v>
       </c>
       <c r="F185" s="9">
-        <f t="shared" si="35"/>
-        <v>113357.87</v>
+        <f t="shared" si="36"/>
+        <v>39063.999999999985</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="15" customHeight="1">
       <c r="A186" s="4">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="B186" s="4">
-        <v>45097</v>
-      </c>
-      <c r="C186" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D186" s="10">
-        <v>0</v>
-      </c>
-      <c r="E186" s="10">
-        <v>76829.45</v>
+        <v>45096</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D186" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E186" s="6">
+        <v>0</v>
       </c>
       <c r="F186" s="9">
-        <f t="shared" si="35"/>
-        <v>190187.32</v>
+        <f t="shared" si="36"/>
+        <v>39049.019999999982</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="15" customHeight="1">
@@ -4574,270 +4583,673 @@
       <c r="B187" s="4">
         <v>45097</v>
       </c>
-      <c r="C187" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D187" s="6">
-        <v>14.98</v>
-      </c>
-      <c r="E187" s="6">
-        <v>0</v>
+      <c r="C187" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D187" s="10">
+        <v>0</v>
+      </c>
+      <c r="E187" s="10">
+        <v>76829.45</v>
       </c>
       <c r="F187" s="9">
-        <f t="shared" si="35"/>
-        <v>190172.34</v>
+        <f t="shared" si="36"/>
+        <v>115878.46999999997</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="15" customHeight="1">
       <c r="A188" s="4">
-        <v>45096</v>
+        <v>45093</v>
       </c>
       <c r="B188" s="4">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="C188" s="14" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D188" s="10">
-        <v>21497.51</v>
-      </c>
-      <c r="E188" s="8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E188" s="10">
+        <v>76829.45</v>
       </c>
       <c r="F188" s="9">
-        <f t="shared" si="35"/>
-        <v>168674.83</v>
+        <f t="shared" si="36"/>
+        <v>192707.91999999998</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="15" customHeight="1">
       <c r="A189" s="4">
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="B189" s="4">
-        <v>45096</v>
-      </c>
-      <c r="C189" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D189" s="10">
-        <v>71708.479999999996</v>
-      </c>
-      <c r="E189" s="8">
+        <v>45097</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D189" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E189" s="6">
         <v>0</v>
       </c>
       <c r="F189" s="9">
-        <f t="shared" si="35"/>
-        <v>96966.349999999991</v>
+        <f t="shared" si="36"/>
+        <v>192692.93999999997</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="15" customHeight="1">
       <c r="A190" s="4">
-        <v>45092</v>
+        <v>45096</v>
       </c>
       <c r="B190" s="4">
-        <v>45096</v>
-      </c>
-      <c r="C190" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D190" s="6">
-        <v>14.98</v>
-      </c>
-      <c r="E190" s="6">
+        <v>45098</v>
+      </c>
+      <c r="C190" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D190" s="10">
+        <v>21497.51</v>
+      </c>
+      <c r="E190" s="8">
         <v>0</v>
       </c>
       <c r="F190" s="9">
-        <f t="shared" si="35"/>
-        <v>96951.37</v>
+        <f t="shared" si="36"/>
+        <v>171195.42999999996</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="15" customHeight="1">
       <c r="A191" s="4">
-        <v>45097</v>
+        <v>45092</v>
       </c>
       <c r="B191" s="4">
-        <v>45099</v>
+        <v>45096</v>
       </c>
       <c r="C191" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D191" s="10">
-        <v>30667.77</v>
+        <v>71708.479999999996</v>
       </c>
       <c r="E191" s="8">
         <v>0</v>
       </c>
       <c r="F191" s="9">
-        <f t="shared" si="35"/>
-        <v>66283.599999999991</v>
+        <f t="shared" si="36"/>
+        <v>99486.949999999968</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="15" customHeight="1">
       <c r="A192" s="4">
+        <v>45092</v>
+      </c>
+      <c r="B192" s="4">
+        <v>45096</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D192" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E192" s="6">
+        <v>0</v>
+      </c>
+      <c r="F192" s="9">
+        <f t="shared" si="36"/>
+        <v>99471.969999999972</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="15" customHeight="1">
+      <c r="A193" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B193" s="4">
+        <v>45099</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D193" s="6">
+        <v>0</v>
+      </c>
+      <c r="E193" s="6">
+        <v>6160.5</v>
+      </c>
+      <c r="F193" s="9">
+        <f t="shared" ref="F193:F203" si="37">F192-D193+E193</f>
+        <v>105632.46999999997</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="15" customHeight="1">
+      <c r="A194" s="4">
         <v>45097</v>
       </c>
-      <c r="B192" s="4">
+      <c r="B194" s="4">
         <v>45099</v>
       </c>
-      <c r="C192" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D192" s="6">
-        <v>14.98</v>
-      </c>
-      <c r="E192" s="6">
-        <v>0</v>
-      </c>
-      <c r="F192" s="9">
-        <f t="shared" si="35"/>
-        <v>66268.62</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="15" customHeight="1">
-      <c r="A193" s="4">
+      <c r="C194" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D194" s="10">
+        <v>30667.77</v>
+      </c>
+      <c r="E194" s="8">
+        <v>0</v>
+      </c>
+      <c r="F194" s="9">
+        <f t="shared" si="37"/>
+        <v>74964.699999999968</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="15" customHeight="1">
+      <c r="A195" s="4">
+        <v>45097</v>
+      </c>
+      <c r="B195" s="4">
+        <v>45099</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D195" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E195" s="6">
+        <v>0</v>
+      </c>
+      <c r="F195" s="9">
+        <f t="shared" si="37"/>
+        <v>74949.719999999972</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="15" customHeight="1">
+      <c r="A196" s="4">
         <v>45098</v>
       </c>
-      <c r="B193" s="4">
+      <c r="B196" s="4">
         <v>45100</v>
       </c>
-      <c r="C193" s="14" t="s">
+      <c r="C196" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D193" s="10">
+      <c r="D196" s="10">
         <v>30667.77</v>
       </c>
-      <c r="E193" s="8">
-        <v>0</v>
-      </c>
-      <c r="F193" s="9">
-        <f t="shared" si="35"/>
-        <v>35600.849999999991</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="15" customHeight="1">
-      <c r="A194" s="4">
+      <c r="E196" s="8">
+        <v>0</v>
+      </c>
+      <c r="F196" s="9">
+        <f t="shared" si="37"/>
+        <v>44281.949999999968</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="15" customHeight="1">
+      <c r="A197" s="4">
         <v>45098</v>
       </c>
-      <c r="B194" s="4">
+      <c r="B197" s="4">
         <v>45100</v>
       </c>
-      <c r="C194" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D194" s="6">
-        <v>14.98</v>
-      </c>
-      <c r="E194" s="6">
-        <v>0</v>
-      </c>
-      <c r="F194" s="9">
-        <f t="shared" si="35"/>
-        <v>35585.869999999988</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="15" customHeight="1">
-      <c r="A195" s="4">
+      <c r="C197" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D197" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E197" s="6">
+        <v>0</v>
+      </c>
+      <c r="F197" s="9">
+        <f t="shared" si="37"/>
+        <v>44266.969999999965</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="15" customHeight="1">
+      <c r="A198" s="4">
         <v>45100</v>
       </c>
-      <c r="B195" s="4">
+      <c r="B198" s="4">
         <v>45104</v>
       </c>
-      <c r="C195" s="14" t="s">
+      <c r="C198" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D195" s="10">
-        <v>0</v>
-      </c>
-      <c r="E195" s="10">
+      <c r="D198" s="10">
+        <v>0</v>
+      </c>
+      <c r="E198" s="10">
         <v>32028.9</v>
       </c>
-      <c r="F195" s="9">
-        <f t="shared" ref="F195:F197" si="36">F194-D195+E195</f>
-        <v>67614.76999999999</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="15" customHeight="1">
-      <c r="A196" s="4">
+      <c r="F198" s="9">
+        <f t="shared" si="37"/>
+        <v>76295.869999999966</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="15" customHeight="1">
+      <c r="A199" s="4">
         <v>45100</v>
       </c>
-      <c r="B196" s="4">
+      <c r="B199" s="4">
         <v>45104</v>
       </c>
-      <c r="C196" s="14" t="s">
+      <c r="C199" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D196" s="10">
+      <c r="D199" s="10">
         <v>21246.95</v>
       </c>
-      <c r="E196" s="8">
-        <v>0</v>
-      </c>
-      <c r="F196" s="9">
-        <f t="shared" si="36"/>
-        <v>46367.819999999992</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" ht="15" customHeight="1">
-      <c r="A197" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B197" s="4">
-        <v>45104</v>
-      </c>
-      <c r="C197" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D197" s="6">
-        <v>14.98</v>
-      </c>
-      <c r="E197" s="6">
-        <v>0</v>
-      </c>
-      <c r="F197" s="9">
-        <f t="shared" si="36"/>
-        <v>46352.839999999989</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="15" customHeight="1">
-      <c r="A198" s="4">
-        <v>45103</v>
-      </c>
-      <c r="B198" s="4">
-        <v>45105</v>
-      </c>
-      <c r="C198" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D198" s="10">
-        <v>21246.95</v>
-      </c>
-      <c r="E198" s="8">
-        <v>0</v>
-      </c>
-      <c r="F198" s="9">
-        <f t="shared" ref="F198:F199" si="37">F197-D198+E198</f>
-        <v>25105.889999999989</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="15" customHeight="1">
-      <c r="A199" s="4">
-        <v>45103</v>
-      </c>
-      <c r="B199" s="4">
-        <v>45105</v>
-      </c>
-      <c r="C199" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D199" s="6">
-        <v>14.98</v>
-      </c>
-      <c r="E199" s="6">
+      <c r="E199" s="8">
         <v>0</v>
       </c>
       <c r="F199" s="9">
         <f t="shared" si="37"/>
-        <v>25090.909999999989</v>
+        <v>55048.919999999969</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="15" customHeight="1">
+      <c r="A200" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B200" s="4">
+        <v>45104</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D200" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E200" s="6">
+        <v>0</v>
+      </c>
+      <c r="F200" s="9">
+        <f t="shared" si="37"/>
+        <v>55033.939999999966</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="15" customHeight="1">
+      <c r="A201" s="4">
+        <v>45103</v>
+      </c>
+      <c r="B201" s="4">
+        <v>45105</v>
+      </c>
+      <c r="C201" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D201" s="10">
+        <v>21246.95</v>
+      </c>
+      <c r="E201" s="8">
+        <v>0</v>
+      </c>
+      <c r="F201" s="9">
+        <f t="shared" si="37"/>
+        <v>33786.989999999962</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="15" customHeight="1">
+      <c r="A202" s="4">
+        <v>45103</v>
+      </c>
+      <c r="B202" s="4">
+        <v>45105</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D202" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E202" s="6">
+        <v>0</v>
+      </c>
+      <c r="F202" s="9">
+        <f t="shared" si="37"/>
+        <v>33772.009999999958</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="15" customHeight="1">
+      <c r="A203" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B203" s="4">
+        <v>45107</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D203" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E203" s="6">
+        <v>0</v>
+      </c>
+      <c r="F203" s="9">
+        <f t="shared" si="37"/>
+        <v>23772.009999999958</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="15" customHeight="1">
+      <c r="A204" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B204" s="4">
+        <v>45107</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D204" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="E204" s="6">
+        <v>0</v>
+      </c>
+      <c r="F204" s="7">
+        <f t="shared" ref="F204:F210" si="38">F203-D204+E204</f>
+        <v>23771.989999999958</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="15" customHeight="1">
+      <c r="A205" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B205" s="4">
+        <v>45109</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D205" s="6">
+        <v>8486</v>
+      </c>
+      <c r="E205" s="6">
+        <v>0</v>
+      </c>
+      <c r="F205" s="9">
+        <f t="shared" si="38"/>
+        <v>15285.989999999958</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="15" customHeight="1">
+      <c r="A206" s="4">
+        <v>45106</v>
+      </c>
+      <c r="B206" s="4">
+        <v>45110</v>
+      </c>
+      <c r="C206" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D206" s="10">
+        <v>0</v>
+      </c>
+      <c r="E206" s="10">
+        <v>22350.38</v>
+      </c>
+      <c r="F206" s="9">
+        <f t="shared" si="38"/>
+        <v>37636.369999999959</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="15" customHeight="1">
+      <c r="A207" s="4">
+        <v>45106</v>
+      </c>
+      <c r="B207" s="4">
+        <v>45110</v>
+      </c>
+      <c r="C207" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D207" s="10">
+        <v>0</v>
+      </c>
+      <c r="E207" s="10">
+        <v>22250.61</v>
+      </c>
+      <c r="F207" s="9">
+        <f t="shared" si="38"/>
+        <v>59886.97999999996</v>
+      </c>
+      <c r="G207" s="10"/>
+    </row>
+    <row r="208" spans="1:7" ht="15" customHeight="1">
+      <c r="A208" s="4">
+        <v>45106</v>
+      </c>
+      <c r="B208" s="4">
+        <v>45110</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D208" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E208" s="6">
+        <v>0</v>
+      </c>
+      <c r="F208" s="9">
+        <f t="shared" si="38"/>
+        <v>59871.999999999956</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="15" customHeight="1">
+      <c r="A209" s="4">
+        <v>45107</v>
+      </c>
+      <c r="B209" s="4">
+        <v>45111</v>
+      </c>
+      <c r="C209" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D209" s="10">
+        <v>0</v>
+      </c>
+      <c r="E209" s="8">
+        <v>260419.67694</v>
+      </c>
+      <c r="F209" s="9">
+        <f t="shared" si="38"/>
+        <v>320291.67693999998</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="15" customHeight="1">
+      <c r="A210" s="4">
+        <v>45107</v>
+      </c>
+      <c r="B210" s="4">
+        <v>45111</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D210" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E210" s="6">
+        <v>0</v>
+      </c>
+      <c r="F210" s="9">
+        <f t="shared" si="38"/>
+        <v>320276.69693999999</v>
+      </c>
+      <c r="G210" s="10">
+        <v>260406.93</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="15" customHeight="1">
+      <c r="A211" s="4">
+        <v>45111</v>
+      </c>
+      <c r="B211" s="4">
+        <v>45113</v>
+      </c>
+      <c r="C211" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D211" s="10">
+        <v>0</v>
+      </c>
+      <c r="E211" s="8">
+        <v>32148.63</v>
+      </c>
+      <c r="F211" s="9">
+        <f t="shared" ref="F211:F212" si="39">F210-D211+E211</f>
+        <v>352425.32694</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="15" customHeight="1">
+      <c r="A212" s="4">
+        <v>45111</v>
+      </c>
+      <c r="B212" s="4">
+        <v>45113</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D212" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E212" s="6">
+        <v>0</v>
+      </c>
+      <c r="F212" s="9">
+        <f t="shared" si="39"/>
+        <v>352410.34694000002</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="15" customHeight="1">
+      <c r="A213" s="4">
+        <v>45112</v>
+      </c>
+      <c r="B213" s="4">
+        <v>45114</v>
+      </c>
+      <c r="C213" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D213" s="10">
+        <v>61335.55</v>
+      </c>
+      <c r="E213" s="8">
+        <v>0</v>
+      </c>
+      <c r="F213" s="9">
+        <f t="shared" ref="F213:F214" si="40">F212-D213+E213</f>
+        <v>291074.79694000003</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="15" customHeight="1">
+      <c r="A214" s="4">
+        <v>45112</v>
+      </c>
+      <c r="B214" s="4">
+        <v>45114</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D214" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E214" s="6">
+        <v>0</v>
+      </c>
+      <c r="F214" s="9">
+        <f t="shared" si="40"/>
+        <v>291059.81694000005</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="15" customHeight="1">
+      <c r="A215" s="4">
+        <v>45113</v>
+      </c>
+      <c r="B215" s="4">
+        <v>45117</v>
+      </c>
+      <c r="C215" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D215" s="10">
+        <v>75667.23</v>
+      </c>
+      <c r="E215" s="8">
+        <v>0</v>
+      </c>
+      <c r="F215" s="9">
+        <f t="shared" ref="F215:F216" si="41">F214-D215+E215</f>
+        <v>215392.58694000007</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="15" customHeight="1">
+      <c r="A216" s="4">
+        <v>45113</v>
+      </c>
+      <c r="B216" s="4">
+        <v>45117</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D216" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E216" s="6">
+        <v>0</v>
+      </c>
+      <c r="F216" s="9">
+        <f t="shared" si="41"/>
+        <v>215377.60694000006</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="15" customHeight="1">
+      <c r="A217" s="4">
+        <v>45114</v>
+      </c>
+      <c r="B217" s="4">
+        <v>45118</v>
+      </c>
+      <c r="C217" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D217" s="10">
+        <v>62137.32</v>
+      </c>
+      <c r="E217" s="8">
+        <v>0</v>
+      </c>
+      <c r="F217" s="9">
+        <f t="shared" ref="F217:F218" si="42">F216-D217+E217</f>
+        <v>153240.28694000005</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="15" customHeight="1">
+      <c r="A218" s="4">
+        <v>45114</v>
+      </c>
+      <c r="B218" s="4">
+        <v>45118</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D218" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E218" s="6">
+        <v>0</v>
+      </c>
+      <c r="F218" s="9">
+        <f t="shared" si="42"/>
+        <v>153225.30694000004</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26704"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26711"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A7/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7129" documentId="11_59254FB3F4AABE3ADC949A5AB88E13345563F2D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{860926A0-77DE-4799-AA3B-14C69114F68E}"/>
+  <xr:revisionPtr revIDLastSave="7170" documentId="11_59254FB3F4AABE3ADC949A5AB88E13345563F2D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8427B2DB-AE4F-4E07-BC4B-7DB4EFE34FE5}"/>
   <bookViews>
     <workbookView xWindow="10368" yWindow="1740" windowWidth="13908" windowHeight="9516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="76">
   <si>
     <t>TRANSACT</t>
   </si>
@@ -254,7 +254,13 @@
     <t>Adjust</t>
   </si>
   <si>
+    <t>JAS-DIV</t>
+  </si>
+  <si>
     <t>BBL</t>
+  </si>
+  <si>
+    <t>PTG</t>
   </si>
 </sst>
 </file>
@@ -651,17 +657,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G218"/>
+  <dimension ref="A1:G227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A218" sqref="A218:B218"/>
+      <pane ySplit="2" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F225" sqref="F225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="10" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="3" customWidth="1"/>
@@ -5080,9 +5086,7 @@
         <f t="shared" si="38"/>
         <v>320276.69693999999</v>
       </c>
-      <c r="G210" s="10">
-        <v>260406.93</v>
-      </c>
+      <c r="G210" s="10"/>
     </row>
     <row r="211" spans="1:7" ht="15" customHeight="1">
       <c r="A211" s="4">
@@ -5143,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="F213" s="9">
-        <f t="shared" ref="F213:F214" si="40">F212-D213+E213</f>
+        <f t="shared" ref="F213:F227" si="40">F212-D213+E213</f>
         <v>291074.79694000003</v>
       </c>
     </row>
@@ -5169,87 +5173,276 @@
       </c>
     </row>
     <row r="215" spans="1:7" ht="15" customHeight="1">
-      <c r="A215" s="4">
-        <v>45113</v>
+      <c r="A215" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B215" s="4">
-        <v>45117</v>
-      </c>
-      <c r="C215" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D215" s="10">
-        <v>75667.23</v>
-      </c>
-      <c r="E215" s="8">
+        <v>45115</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D215" s="6">
+        <v>20</v>
+      </c>
+      <c r="E215" s="6">
         <v>0</v>
       </c>
       <c r="F215" s="9">
-        <f t="shared" ref="F215:F216" si="41">F214-D215+E215</f>
-        <v>215392.58694000007</v>
+        <f t="shared" si="40"/>
+        <v>291039.81694000005</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="15" customHeight="1">
-      <c r="A216" s="4">
-        <v>45113</v>
+      <c r="A216" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B216" s="4">
         <v>45117</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D216" s="6">
-        <v>14.98</v>
+        <v>0</v>
       </c>
       <c r="E216" s="6">
-        <v>0</v>
+        <v>3973.46</v>
       </c>
       <c r="F216" s="9">
-        <f t="shared" si="41"/>
-        <v>215377.60694000006</v>
+        <f t="shared" si="40"/>
+        <v>295013.27694000007</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="15" customHeight="1">
       <c r="A217" s="4">
-        <v>45114</v>
+        <v>45113</v>
       </c>
       <c r="B217" s="4">
-        <v>45118</v>
+        <v>45117</v>
       </c>
       <c r="C217" s="14" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D217" s="10">
-        <v>62137.32</v>
+        <v>75667.23</v>
       </c>
       <c r="E217" s="8">
         <v>0</v>
       </c>
       <c r="F217" s="9">
-        <f t="shared" ref="F217:F218" si="42">F216-D217+E217</f>
-        <v>153240.28694000005</v>
+        <f t="shared" si="40"/>
+        <v>219346.04694000009</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="15" customHeight="1">
       <c r="A218" s="4">
+        <v>45113</v>
+      </c>
+      <c r="B218" s="4">
+        <v>45117</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D218" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E218" s="6">
+        <v>0</v>
+      </c>
+      <c r="F218" s="9">
+        <f t="shared" si="40"/>
+        <v>219331.06694000008</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="15" customHeight="1">
+      <c r="A219" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B219" s="4">
+        <v>45107</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D219" s="6">
+        <v>0</v>
+      </c>
+      <c r="E219" s="6">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F219" s="9">
+        <f t="shared" si="40"/>
+        <v>219333.30694000007</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="15" customHeight="1">
+      <c r="A220" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B220" s="4">
+        <v>45065</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D220" s="6">
+        <v>0</v>
+      </c>
+      <c r="E220" s="6">
+        <v>1080</v>
+      </c>
+      <c r="F220" s="9">
+        <f t="shared" si="40"/>
+        <v>220413.30694000007</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="15" customHeight="1">
+      <c r="A221" s="4">
         <v>45114</v>
       </c>
-      <c r="B218" s="4">
+      <c r="B221" s="4">
         <v>45118</v>
       </c>
-      <c r="C218" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D218" s="6">
-        <v>14.98</v>
-      </c>
-      <c r="E218" s="6">
-        <v>0</v>
-      </c>
-      <c r="F218" s="9">
-        <f t="shared" si="42"/>
-        <v>153225.30694000004</v>
+      <c r="C221" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D221" s="10">
+        <v>62137.32</v>
+      </c>
+      <c r="E221" s="8">
+        <v>0</v>
+      </c>
+      <c r="F221" s="9">
+        <f t="shared" si="40"/>
+        <v>158275.98694000006</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="15" customHeight="1">
+      <c r="A222" s="4">
+        <v>45114</v>
+      </c>
+      <c r="B222" s="4">
+        <v>45118</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D222" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E222" s="6">
+        <v>0</v>
+      </c>
+      <c r="F222" s="9">
+        <f t="shared" si="40"/>
+        <v>158261.00694000005</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="15" customHeight="1">
+      <c r="A223" s="4">
+        <v>45119</v>
+      </c>
+      <c r="B223" s="4">
+        <v>45121</v>
+      </c>
+      <c r="C223" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D223" s="10">
+        <v>41130.9</v>
+      </c>
+      <c r="E223" s="8">
+        <v>0</v>
+      </c>
+      <c r="F223" s="9">
+        <f t="shared" si="40"/>
+        <v>117130.10694000006</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="15" customHeight="1">
+      <c r="A224" s="4">
+        <v>45119</v>
+      </c>
+      <c r="B224" s="4">
+        <v>45121</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D224" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E224" s="6">
+        <v>0</v>
+      </c>
+      <c r="F224" s="9">
+        <f t="shared" si="40"/>
+        <v>117115.12694000006</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="15" customHeight="1">
+      <c r="A225" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B225" s="4">
+        <v>45123</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D225" s="6">
+        <v>30000</v>
+      </c>
+      <c r="E225" s="6">
+        <v>0</v>
+      </c>
+      <c r="F225" s="7">
+        <f t="shared" si="40"/>
+        <v>87115.12694000006</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="15" customHeight="1">
+      <c r="A226" s="4">
+        <v>45120</v>
+      </c>
+      <c r="B226" s="4">
+        <v>45124</v>
+      </c>
+      <c r="C226" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D226" s="10">
+        <v>0</v>
+      </c>
+      <c r="E226" s="8">
+        <v>40410.29</v>
+      </c>
+      <c r="F226" s="9">
+        <f t="shared" si="40"/>
+        <v>127525.41694000005</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="15" customHeight="1">
+      <c r="A227" s="4">
+        <v>45120</v>
+      </c>
+      <c r="B227" s="4">
+        <v>45124</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D227" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E227" s="6">
+        <v>0</v>
+      </c>
+      <c r="F227" s="9">
+        <f t="shared" si="40"/>
+        <v>127510.43694000006</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26821"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A7/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7170" documentId="11_59254FB3F4AABE3ADC949A5AB88E13345563F2D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8427B2DB-AE4F-4E07-BC4B-7DB4EFE34FE5}"/>
+  <xr:revisionPtr revIDLastSave="7323" documentId="11_59254FB3F4AABE3ADC949A5AB88E13345563F2D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{384343D8-3D4C-415C-AB92-2235D658B9AC}"/>
   <bookViews>
     <workbookView xWindow="10368" yWindow="1740" windowWidth="13908" windowHeight="9516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="81">
   <si>
     <t>TRANSACT</t>
   </si>
@@ -261,6 +261,21 @@
   </si>
   <si>
     <t>PTG</t>
+  </si>
+  <si>
+    <t>TTB</t>
+  </si>
+  <si>
+    <t>Plum</t>
+  </si>
+  <si>
+    <t>BAY</t>
+  </si>
+  <si>
+    <t>KBANK</t>
+  </si>
+  <si>
+    <t>AIMIRT</t>
   </si>
 </sst>
 </file>
@@ -300,11 +315,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -314,6 +324,11 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF333333"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -337,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="189" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -345,14 +360,15 @@
     <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="189" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="188" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="189" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="190" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="189" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="189" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,19 +673,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G227"/>
+  <dimension ref="A1:G262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F225" sqref="F225"/>
+      <pane ySplit="2" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F262" sqref="F262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="14.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="10" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="9" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" style="3" customWidth="1"/>
     <col min="8" max="11" width="10.140625" style="3"/>
@@ -693,7 +709,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -713,7 +729,7 @@
       <c r="E2" s="6">
         <v>0</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="8">
         <v>214038.73000000126</v>
       </c>
     </row>
@@ -733,7 +749,7 @@
       <c r="E3" s="6">
         <v>0</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="8">
         <f t="shared" ref="F3" si="0">F2-D3+E3</f>
         <v>212138.73000000126</v>
       </c>
@@ -748,13 +764,13 @@
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
         <v>49390.36</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <f>F3-D4+E4</f>
         <v>261529.09000000125</v>
       </c>
@@ -775,7 +791,7 @@
       <c r="E5" s="6">
         <v>0</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="8">
         <f t="shared" ref="F5" si="1">F4-D5+E5</f>
         <v>261514.11000000124</v>
       </c>
@@ -790,13 +806,13 @@
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
         <v>98032.38</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <f t="shared" ref="F6:F7" si="2">F5-D6+E6</f>
         <v>359546.49000000127</v>
       </c>
@@ -817,7 +833,7 @@
       <c r="E7" s="6">
         <v>0</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="8">
         <f t="shared" si="2"/>
         <v>359531.51000000129</v>
       </c>
@@ -832,13 +848,13 @@
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>99219.28</v>
       </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9">
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
         <f t="shared" ref="F8:F9" si="3">F7-D8+E8</f>
         <v>260312.23000000129</v>
       </c>
@@ -859,7 +875,7 @@
       <c r="E9" s="6">
         <v>0</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="8">
         <f t="shared" si="3"/>
         <v>260297.25000000128</v>
       </c>
@@ -874,13 +890,13 @@
       <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>147926.92000000001</v>
       </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9">
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
         <f t="shared" ref="F10:F12" si="4">F9-D10+E10</f>
         <v>112370.33000000127</v>
       </c>
@@ -901,7 +917,7 @@
       <c r="E11" s="6">
         <v>0</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="8">
         <f t="shared" si="4"/>
         <v>112355.35000000127</v>
       </c>
@@ -916,13 +932,13 @@
       <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
         <v>125720.92</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <f t="shared" si="4"/>
         <v>238076.27000000127</v>
       </c>
@@ -937,13 +953,13 @@
       <c r="C13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="8">
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
         <v>105066.77</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <f t="shared" ref="F13:F14" si="5">F12-D13+E13</f>
         <v>343143.04000000126</v>
       </c>
@@ -964,7 +980,7 @@
       <c r="E14" s="6">
         <v>0</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="8">
         <f t="shared" si="5"/>
         <v>343128.06000000128</v>
       </c>
@@ -985,7 +1001,7 @@
       <c r="E15" s="6">
         <v>0</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="8">
         <f t="shared" ref="F15" si="6">F14-D15+E15</f>
         <v>343108.06000000128</v>
       </c>
@@ -1006,7 +1022,7 @@
       <c r="E16" s="6">
         <v>0</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="8">
         <f>F15-D16+E16</f>
         <v>342883.06000000128</v>
       </c>
@@ -1027,7 +1043,7 @@
       <c r="E17" s="6">
         <v>0</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="8">
         <f>F16-D17+E17</f>
         <v>342643.06000000128</v>
       </c>
@@ -1048,7 +1064,7 @@
       <c r="E18" s="6">
         <v>304081.40000000002</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="8">
         <f t="shared" ref="F18:F26" si="7">F17-D18+E18</f>
         <v>646724.46000000136</v>
       </c>
@@ -1063,13 +1079,13 @@
       <c r="C19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
-      <c r="E19" s="8">
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
         <v>151912.78</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <f t="shared" si="7"/>
         <v>798637.24000000139</v>
       </c>
@@ -1084,13 +1100,13 @@
       <c r="C20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>89197.13</v>
       </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="9">
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
         <f t="shared" si="7"/>
         <v>709440.11000000138</v>
       </c>
@@ -1111,7 +1127,7 @@
       <c r="E21" s="6">
         <v>0</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="8">
         <f t="shared" si="7"/>
         <v>709425.1300000014</v>
       </c>
@@ -1126,13 +1142,13 @@
       <c r="C22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>89197.13</v>
       </c>
-      <c r="E22" s="8">
-        <v>0</v>
-      </c>
-      <c r="F22" s="9">
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8">
         <f t="shared" si="7"/>
         <v>620228.0000000014</v>
       </c>
@@ -1153,7 +1169,7 @@
       <c r="E23" s="6">
         <v>0</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="8">
         <f t="shared" si="7"/>
         <v>620213.02000000142</v>
       </c>
@@ -1168,13 +1184,13 @@
       <c r="C24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>101023.27</v>
       </c>
-      <c r="E24" s="8">
-        <v>0</v>
-      </c>
-      <c r="F24" s="9">
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
         <f t="shared" si="7"/>
         <v>519189.7500000014</v>
       </c>
@@ -1189,13 +1205,13 @@
       <c r="C25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="8">
-        <v>0</v>
-      </c>
-      <c r="E25" s="8">
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7">
         <v>52882.61</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <f t="shared" si="7"/>
         <v>572072.36000000138</v>
       </c>
@@ -1216,7 +1232,7 @@
       <c r="E26" s="6">
         <v>0</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <f t="shared" si="7"/>
         <v>572057.3800000014</v>
       </c>
@@ -1231,13 +1247,13 @@
       <c r="C27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <v>142514.95000000001</v>
       </c>
-      <c r="E27" s="8">
-        <v>0</v>
-      </c>
-      <c r="F27" s="9">
+      <c r="E27" s="7">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8">
         <f t="shared" ref="F27:F29" si="8">F26-D27+E27</f>
         <v>429542.43000000139</v>
       </c>
@@ -1258,7 +1274,7 @@
       <c r="E28" s="6">
         <v>0</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="8">
         <f t="shared" si="8"/>
         <v>429527.45000000141</v>
       </c>
@@ -1279,7 +1295,7 @@
       <c r="E29" s="6">
         <v>0</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="8">
         <f t="shared" si="8"/>
         <v>400027.45000000141</v>
       </c>
@@ -1300,7 +1316,7 @@
       <c r="E30" s="6">
         <v>102052.5</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="8">
         <f t="shared" ref="F30:F36" si="9">F29-D30+E30</f>
         <v>502079.95000000141</v>
       </c>
@@ -1315,13 +1331,13 @@
       <c r="C31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="8">
-        <v>0</v>
-      </c>
-      <c r="E31" s="8">
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7">
         <v>318044</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="8">
         <f t="shared" si="9"/>
         <v>820123.95000000135</v>
       </c>
@@ -1336,13 +1352,13 @@
       <c r="C32" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7">
         <v>195431.91</v>
       </c>
-      <c r="E32" s="8">
-        <v>0</v>
-      </c>
-      <c r="F32" s="9">
+      <c r="E32" s="7">
+        <v>0</v>
+      </c>
+      <c r="F32" s="8">
         <f t="shared" si="9"/>
         <v>624692.04000000132</v>
       </c>
@@ -1363,7 +1379,7 @@
       <c r="E33" s="6">
         <v>0</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="8">
         <f t="shared" si="9"/>
         <v>624677.06000000134</v>
       </c>
@@ -1378,13 +1394,13 @@
       <c r="C34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="8">
-        <v>0</v>
-      </c>
-      <c r="E34" s="8">
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7">
         <v>53381.5</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="8">
         <f t="shared" si="9"/>
         <v>678058.56000000134</v>
       </c>
@@ -1399,13 +1415,13 @@
       <c r="C35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="8">
-        <v>0</v>
-      </c>
-      <c r="E35" s="8">
+      <c r="D35" s="7">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7">
         <v>54628.74</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="8">
         <f t="shared" si="9"/>
         <v>732687.30000000133</v>
       </c>
@@ -1426,7 +1442,7 @@
       <c r="E36" s="6">
         <v>0</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="8">
         <f t="shared" si="9"/>
         <v>732672.32000000135</v>
       </c>
@@ -1441,13 +1457,13 @@
       <c r="C37" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="7">
         <v>140710.97</v>
       </c>
-      <c r="E37" s="8">
-        <v>0</v>
-      </c>
-      <c r="F37" s="9">
+      <c r="E37" s="7">
+        <v>0</v>
+      </c>
+      <c r="F37" s="8">
         <f t="shared" ref="F37" si="10">F36-D37+E37</f>
         <v>591961.35000000137</v>
       </c>
@@ -1462,13 +1478,13 @@
       <c r="C38" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="7">
         <v>96212.63</v>
       </c>
-      <c r="E38" s="8">
-        <v>0</v>
-      </c>
-      <c r="F38" s="9">
+      <c r="E38" s="7">
+        <v>0</v>
+      </c>
+      <c r="F38" s="8">
         <f t="shared" ref="F38:F53" si="11">F37-D38+E38</f>
         <v>495748.72000000137</v>
       </c>
@@ -1489,7 +1505,7 @@
       <c r="E39" s="6">
         <v>0</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="8">
         <f t="shared" si="11"/>
         <v>495733.74000000139</v>
       </c>
@@ -1510,7 +1526,7 @@
       <c r="E40" s="6">
         <v>0</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="8">
         <f t="shared" si="11"/>
         <v>468533.74000000139</v>
       </c>
@@ -1525,13 +1541,13 @@
       <c r="C41" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="7">
         <v>77170.55</v>
       </c>
-      <c r="E41" s="8">
-        <v>0</v>
-      </c>
-      <c r="F41" s="9">
+      <c r="E41" s="7">
+        <v>0</v>
+      </c>
+      <c r="F41" s="8">
         <f t="shared" si="11"/>
         <v>391363.1900000014</v>
       </c>
@@ -1546,13 +1562,13 @@
       <c r="C42" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="7">
         <v>77170.55</v>
       </c>
-      <c r="E42" s="8">
-        <v>0</v>
-      </c>
-      <c r="F42" s="9">
+      <c r="E42" s="7">
+        <v>0</v>
+      </c>
+      <c r="F42" s="8">
         <f t="shared" si="11"/>
         <v>314192.64000000141</v>
       </c>
@@ -1567,13 +1583,13 @@
       <c r="C43" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="7">
         <v>47805.65</v>
       </c>
-      <c r="E43" s="8">
-        <v>0</v>
-      </c>
-      <c r="F43" s="9">
+      <c r="E43" s="7">
+        <v>0</v>
+      </c>
+      <c r="F43" s="8">
         <f t="shared" si="11"/>
         <v>266386.99000000139</v>
       </c>
@@ -1588,13 +1604,13 @@
       <c r="C44" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D44" s="8">
-        <v>0</v>
-      </c>
-      <c r="E44" s="8">
+      <c r="D44" s="7">
+        <v>0</v>
+      </c>
+      <c r="E44" s="7">
         <v>77827.240000000005</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="8">
         <f t="shared" si="11"/>
         <v>344214.23000000138</v>
       </c>
@@ -1615,7 +1631,7 @@
       <c r="E45" s="6">
         <v>0</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="8">
         <f t="shared" si="11"/>
         <v>344199.2500000014</v>
       </c>
@@ -1636,7 +1652,7 @@
       <c r="E46" s="6">
         <v>0</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="8">
         <f t="shared" si="11"/>
         <v>342999.2500000014</v>
       </c>
@@ -1651,13 +1667,13 @@
       <c r="C47" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="8">
-        <v>0</v>
-      </c>
-      <c r="E47" s="8">
+      <c r="D47" s="7">
+        <v>0</v>
+      </c>
+      <c r="E47" s="7">
         <v>53630.95</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47" s="8">
         <f t="shared" si="11"/>
         <v>396630.20000000141</v>
       </c>
@@ -1672,13 +1688,13 @@
       <c r="C48" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="7">
         <v>68551.5</v>
       </c>
-      <c r="E48" s="8">
-        <v>0</v>
-      </c>
-      <c r="F48" s="9">
+      <c r="E48" s="7">
+        <v>0</v>
+      </c>
+      <c r="F48" s="8">
         <f t="shared" si="11"/>
         <v>328078.70000000141</v>
       </c>
@@ -1699,7 +1715,7 @@
       <c r="E49" s="6">
         <v>0</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="8">
         <f t="shared" si="11"/>
         <v>328063.72000000143</v>
       </c>
@@ -1714,13 +1730,13 @@
       <c r="C50" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="8">
-        <v>0</v>
-      </c>
-      <c r="E50" s="8">
+      <c r="D50" s="7">
+        <v>0</v>
+      </c>
+      <c r="E50" s="7">
         <v>55875.97</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50" s="8">
         <f t="shared" si="11"/>
         <v>383939.69000000146</v>
       </c>
@@ -1741,7 +1757,7 @@
       <c r="E51" s="6">
         <v>0</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="8">
         <f t="shared" si="11"/>
         <v>383924.71000000148</v>
       </c>
@@ -1756,13 +1772,13 @@
       <c r="C52" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="7">
         <v>90951</v>
       </c>
-      <c r="E52" s="8">
-        <v>0</v>
-      </c>
-      <c r="F52" s="9">
+      <c r="E52" s="7">
+        <v>0</v>
+      </c>
+      <c r="F52" s="8">
         <f t="shared" si="11"/>
         <v>292973.71000000148</v>
       </c>
@@ -1783,7 +1799,7 @@
       <c r="E53" s="6">
         <v>0</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F53" s="8">
         <f t="shared" si="11"/>
         <v>292958.73000000149</v>
       </c>
@@ -1798,13 +1814,13 @@
       <c r="C54" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="7">
         <v>183405.33</v>
       </c>
-      <c r="E54" s="8">
-        <v>0</v>
-      </c>
-      <c r="F54" s="9">
+      <c r="E54" s="7">
+        <v>0</v>
+      </c>
+      <c r="F54" s="8">
         <f t="shared" ref="F54:F56" si="12">F53-D54+E54</f>
         <v>109553.40000000151</v>
       </c>
@@ -1825,7 +1841,7 @@
       <c r="E55" s="6">
         <v>0</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F55" s="8">
         <f t="shared" si="12"/>
         <v>109538.42000000151</v>
       </c>
@@ -1840,13 +1856,13 @@
       <c r="C56" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="8">
-        <v>0</v>
-      </c>
-      <c r="E56" s="8">
+      <c r="D56" s="7">
+        <v>0</v>
+      </c>
+      <c r="E56" s="7">
         <v>54379.28</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F56" s="8">
         <f t="shared" si="12"/>
         <v>163917.70000000153</v>
       </c>
@@ -1861,13 +1877,13 @@
       <c r="C57" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D57" s="8">
-        <v>0</v>
-      </c>
-      <c r="E57" s="8">
+      <c r="D57" s="7">
+        <v>0</v>
+      </c>
+      <c r="E57" s="7">
         <v>54379.28</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F57" s="8">
         <f t="shared" ref="F57" si="13">F56-D57+E57</f>
         <v>218296.98000000152</v>
       </c>
@@ -1882,13 +1898,13 @@
       <c r="C58" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="8">
-        <v>0</v>
-      </c>
-      <c r="E58" s="8">
+      <c r="D58" s="7">
+        <v>0</v>
+      </c>
+      <c r="E58" s="7">
         <v>171219.93</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F58" s="8">
         <f t="shared" ref="F58" si="14">F57-D58+E58</f>
         <v>389516.91000000155</v>
       </c>
@@ -1903,13 +1919,13 @@
       <c r="C59" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D59" s="8">
-        <v>0</v>
-      </c>
-      <c r="E59" s="8">
+      <c r="D59" s="7">
+        <v>0</v>
+      </c>
+      <c r="E59" s="7">
         <v>60116.55</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F59" s="8">
         <f t="shared" ref="F59:F62" si="15">F58-D59+E59</f>
         <v>449633.46000000153</v>
       </c>
@@ -1930,7 +1946,7 @@
       <c r="E60" s="6">
         <v>0</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F60" s="8">
         <f t="shared" si="15"/>
         <v>449618.48000000155</v>
       </c>
@@ -1951,7 +1967,7 @@
       <c r="E61" s="6">
         <v>0</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F61" s="8">
         <f t="shared" si="15"/>
         <v>399618.48000000155</v>
       </c>
@@ -1972,7 +1988,7 @@
       <c r="E62" s="6">
         <v>0</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F62" s="8">
         <f t="shared" si="15"/>
         <v>399598.48000000155</v>
       </c>
@@ -1987,13 +2003,13 @@
       <c r="C63" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D63" s="8">
-        <v>0</v>
-      </c>
-      <c r="E63" s="8">
+      <c r="D63" s="7">
+        <v>0</v>
+      </c>
+      <c r="E63" s="7">
         <v>189778.73</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F63" s="8">
         <f t="shared" ref="F63:F71" si="16">F62-D63+E63</f>
         <v>589377.21000000159</v>
       </c>
@@ -2014,7 +2030,7 @@
       <c r="E64" s="6">
         <v>0</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F64" s="8">
         <f t="shared" si="16"/>
         <v>589362.23000000161</v>
       </c>
@@ -2029,13 +2045,13 @@
       <c r="C65" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="7">
         <v>45099.67</v>
       </c>
-      <c r="E65" s="8">
-        <v>0</v>
-      </c>
-      <c r="F65" s="9">
+      <c r="E65" s="7">
+        <v>0</v>
+      </c>
+      <c r="F65" s="8">
         <f t="shared" si="16"/>
         <v>544262.56000000157</v>
       </c>
@@ -2056,7 +2072,7 @@
       <c r="E66" s="6">
         <v>0</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F66" s="8">
         <f t="shared" si="16"/>
         <v>544247.58000000159</v>
       </c>
@@ -2077,7 +2093,7 @@
       <c r="E67" s="6">
         <v>0</v>
       </c>
-      <c r="F67" s="9">
+      <c r="F67" s="8">
         <f t="shared" si="16"/>
         <v>543815.58000000159</v>
       </c>
@@ -2092,13 +2108,13 @@
       <c r="C68" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D68" s="7">
         <v>36681.06</v>
       </c>
-      <c r="E68" s="8">
-        <v>0</v>
-      </c>
-      <c r="F68" s="9">
+      <c r="E68" s="7">
+        <v>0</v>
+      </c>
+      <c r="F68" s="8">
         <f t="shared" si="16"/>
         <v>507134.52000000159</v>
       </c>
@@ -2113,13 +2129,13 @@
       <c r="C69" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D69" s="7">
         <v>25255.81</v>
       </c>
-      <c r="E69" s="8">
-        <v>0</v>
-      </c>
-      <c r="F69" s="9">
+      <c r="E69" s="7">
+        <v>0</v>
+      </c>
+      <c r="F69" s="8">
         <f t="shared" si="16"/>
         <v>481878.71000000159</v>
       </c>
@@ -2134,13 +2150,13 @@
       <c r="C70" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D70" s="7">
         <v>22850.5</v>
       </c>
-      <c r="E70" s="8">
-        <v>0</v>
-      </c>
-      <c r="F70" s="9">
+      <c r="E70" s="7">
+        <v>0</v>
+      </c>
+      <c r="F70" s="8">
         <f t="shared" si="16"/>
         <v>459028.21000000159</v>
       </c>
@@ -2161,7 +2177,7 @@
       <c r="E71" s="6">
         <v>0</v>
       </c>
-      <c r="F71" s="9">
+      <c r="F71" s="8">
         <f t="shared" si="16"/>
         <v>459013.23000000161</v>
       </c>
@@ -2176,13 +2192,13 @@
       <c r="C72" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D72" s="8">
+      <c r="D72" s="7">
         <v>139808.98000000001</v>
       </c>
-      <c r="E72" s="8">
-        <v>0</v>
-      </c>
-      <c r="F72" s="9">
+      <c r="E72" s="7">
+        <v>0</v>
+      </c>
+      <c r="F72" s="8">
         <f t="shared" ref="F72:F74" si="17">F71-D72+E72</f>
         <v>319204.25000000163</v>
       </c>
@@ -2203,7 +2219,7 @@
       <c r="E73" s="6">
         <v>0</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F73" s="8">
         <f t="shared" si="17"/>
         <v>319189.27000000165</v>
       </c>
@@ -2224,7 +2240,7 @@
       <c r="E74" s="6">
         <v>0</v>
       </c>
-      <c r="F74" s="9">
+      <c r="F74" s="8">
         <f t="shared" si="17"/>
         <v>297189.27000000165</v>
       </c>
@@ -2245,7 +2261,7 @@
       <c r="E75" s="6">
         <v>0</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F75" s="8">
         <f t="shared" ref="F75:F77" si="18">F74-D75+E75</f>
         <v>287189.27000000165</v>
       </c>
@@ -2260,13 +2276,13 @@
       <c r="C76" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D76" s="7">
         <v>164363.28</v>
       </c>
-      <c r="E76" s="8">
-        <v>0</v>
-      </c>
-      <c r="F76" s="9">
+      <c r="E76" s="7">
+        <v>0</v>
+      </c>
+      <c r="F76" s="8">
         <f t="shared" si="18"/>
         <v>122825.99000000165</v>
       </c>
@@ -2287,7 +2303,7 @@
       <c r="E77" s="6">
         <v>0</v>
       </c>
-      <c r="F77" s="9">
+      <c r="F77" s="8">
         <f t="shared" si="18"/>
         <v>122811.01000000165</v>
       </c>
@@ -2308,7 +2324,7 @@
       <c r="E78" s="6">
         <v>0</v>
       </c>
-      <c r="F78" s="9">
+      <c r="F78" s="8">
         <f t="shared" ref="F78:F96" si="19">F77-D78+E78</f>
         <v>121491.01000000165</v>
       </c>
@@ -2323,13 +2339,13 @@
       <c r="C79" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D79" s="8">
-        <v>0</v>
-      </c>
-      <c r="E79" s="8">
+      <c r="D79" s="7">
+        <v>0</v>
+      </c>
+      <c r="E79" s="7">
         <v>9126</v>
       </c>
-      <c r="F79" s="9">
+      <c r="F79" s="8">
         <f t="shared" si="19"/>
         <v>130617.01000000165</v>
       </c>
@@ -2344,13 +2360,13 @@
       <c r="C80" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D80" s="8">
-        <v>0</v>
-      </c>
-      <c r="E80" s="8">
+      <c r="D80" s="7">
+        <v>0</v>
+      </c>
+      <c r="E80" s="7">
         <v>132705.42000000001</v>
       </c>
-      <c r="F80" s="9">
+      <c r="F80" s="8">
         <f t="shared" si="19"/>
         <v>263322.43000000168</v>
       </c>
@@ -2371,7 +2387,7 @@
       <c r="E81" s="6">
         <v>0</v>
       </c>
-      <c r="F81" s="9">
+      <c r="F81" s="8">
         <f t="shared" si="19"/>
         <v>263307.4500000017</v>
       </c>
@@ -2386,13 +2402,13 @@
       <c r="C82" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D82" s="8">
-        <v>0</v>
-      </c>
-      <c r="E82" s="8">
+      <c r="D82" s="7">
+        <v>0</v>
+      </c>
+      <c r="E82" s="7">
         <v>7128</v>
       </c>
-      <c r="F82" s="9">
+      <c r="F82" s="8">
         <f t="shared" si="19"/>
         <v>270435.4500000017</v>
       </c>
@@ -2407,13 +2423,13 @@
       <c r="C83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D83" s="7">
         <v>86591.37</v>
       </c>
-      <c r="E83" s="8">
-        <v>0</v>
-      </c>
-      <c r="F83" s="9">
+      <c r="E83" s="7">
+        <v>0</v>
+      </c>
+      <c r="F83" s="8">
         <f t="shared" si="19"/>
         <v>183844.0800000017</v>
       </c>
@@ -2434,7 +2450,7 @@
       <c r="E84" s="6">
         <v>0</v>
       </c>
-      <c r="F84" s="9">
+      <c r="F84" s="8">
         <f t="shared" si="19"/>
         <v>183829.10000000169</v>
       </c>
@@ -2449,13 +2465,13 @@
       <c r="C85" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D85" s="7">
         <v>70155.039999999994</v>
       </c>
-      <c r="E85" s="8">
-        <v>0</v>
-      </c>
-      <c r="F85" s="9">
+      <c r="E85" s="7">
+        <v>0</v>
+      </c>
+      <c r="F85" s="8">
         <f t="shared" si="19"/>
         <v>113674.0600000017</v>
       </c>
@@ -2476,7 +2492,7 @@
       <c r="E86" s="6">
         <v>0</v>
       </c>
-      <c r="F86" s="9">
+      <c r="F86" s="8">
         <f t="shared" si="19"/>
         <v>113659.0800000017</v>
       </c>
@@ -2497,7 +2513,7 @@
       <c r="E87" s="6">
         <v>0</v>
       </c>
-      <c r="F87" s="9">
+      <c r="F87" s="8">
         <f t="shared" si="19"/>
         <v>113639.0800000017</v>
       </c>
@@ -2512,13 +2528,13 @@
       <c r="C88" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D88" s="8">
+      <c r="D88" s="7">
         <v>28142.2</v>
       </c>
-      <c r="E88" s="8">
-        <v>0</v>
-      </c>
-      <c r="F88" s="9">
+      <c r="E88" s="7">
+        <v>0</v>
+      </c>
+      <c r="F88" s="8">
         <f t="shared" si="19"/>
         <v>85496.880000001707</v>
       </c>
@@ -2533,13 +2549,13 @@
       <c r="C89" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D89" s="7">
         <v>63139.54</v>
       </c>
-      <c r="E89" s="8">
-        <v>0</v>
-      </c>
-      <c r="F89" s="9">
+      <c r="E89" s="7">
+        <v>0</v>
+      </c>
+      <c r="F89" s="8">
         <f t="shared" si="19"/>
         <v>22357.340000001706</v>
       </c>
@@ -2560,7 +2576,7 @@
       <c r="E90" s="6">
         <v>0</v>
       </c>
-      <c r="F90" s="9">
+      <c r="F90" s="8">
         <f t="shared" si="19"/>
         <v>22342.360000001707</v>
       </c>
@@ -2581,7 +2597,7 @@
       <c r="E91" s="6">
         <v>0</v>
       </c>
-      <c r="F91" s="9">
+      <c r="F91" s="8">
         <f t="shared" si="19"/>
         <v>18442.360000001707</v>
       </c>
@@ -2602,7 +2618,7 @@
       <c r="E92" s="6">
         <v>0</v>
       </c>
-      <c r="F92" s="7">
+      <c r="F92" s="8">
         <f t="shared" si="19"/>
         <v>18010.360000001707</v>
       </c>
@@ -2623,7 +2639,7 @@
       <c r="E93" s="6">
         <v>10372</v>
       </c>
-      <c r="F93" s="9">
+      <c r="F93" s="8">
         <f t="shared" si="19"/>
         <v>28382.360000001707</v>
       </c>
@@ -2644,7 +2660,7 @@
       <c r="E94" s="6">
         <v>2185.1999999999998</v>
       </c>
-      <c r="F94" s="7">
+      <c r="F94" s="8">
         <f t="shared" si="19"/>
         <v>30567.560000001708</v>
       </c>
@@ -2665,7 +2681,7 @@
       <c r="E95" s="6">
         <v>36800</v>
       </c>
-      <c r="F95" s="9">
+      <c r="F95" s="8">
         <f t="shared" si="19"/>
         <v>67367.560000001715</v>
       </c>
@@ -2686,7 +2702,7 @@
       <c r="E96" s="6">
         <v>0</v>
       </c>
-      <c r="F96" s="9">
+      <c r="F96" s="8">
         <f t="shared" si="19"/>
         <v>60467.560000001715</v>
       </c>
@@ -2707,7 +2723,7 @@
       <c r="E97" s="6">
         <v>1032</v>
       </c>
-      <c r="F97" s="9">
+      <c r="F97" s="8">
         <f t="shared" ref="F97" si="20">F96-D97+E97</f>
         <v>61499.560000001715</v>
       </c>
@@ -2728,7 +2744,7 @@
       <c r="E98" s="6">
         <v>3415.5</v>
       </c>
-      <c r="F98" s="9">
+      <c r="F98" s="8">
         <f t="shared" ref="F98:F104" si="21">F97-D98+E98</f>
         <v>64915.060000001715</v>
       </c>
@@ -2743,13 +2759,13 @@
       <c r="C99" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D99" s="8">
-        <v>0</v>
-      </c>
-      <c r="E99" s="8">
+      <c r="D99" s="7">
+        <v>0</v>
+      </c>
+      <c r="E99" s="7">
         <v>77328.34</v>
       </c>
-      <c r="F99" s="9">
+      <c r="F99" s="8">
         <f t="shared" si="21"/>
         <v>142243.40000000171</v>
       </c>
@@ -2764,13 +2780,13 @@
       <c r="C100" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D100" s="8">
-        <v>0</v>
-      </c>
-      <c r="E100" s="8">
+      <c r="D100" s="7">
+        <v>0</v>
+      </c>
+      <c r="E100" s="7">
         <v>93791.8</v>
       </c>
-      <c r="F100" s="9">
+      <c r="F100" s="8">
         <f t="shared" si="21"/>
         <v>236035.2000000017</v>
       </c>
@@ -2791,7 +2807,7 @@
       <c r="E101" s="6">
         <v>0</v>
       </c>
-      <c r="F101" s="9">
+      <c r="F101" s="8">
         <f t="shared" si="21"/>
         <v>236020.22000000169</v>
       </c>
@@ -2812,7 +2828,7 @@
       <c r="E102" s="6">
         <v>5481</v>
       </c>
-      <c r="F102" s="9">
+      <c r="F102" s="8">
         <f t="shared" si="21"/>
         <v>241501.22000000169</v>
       </c>
@@ -2833,7 +2849,7 @@
       <c r="E103" s="6">
         <v>300000</v>
       </c>
-      <c r="F103" s="9">
+      <c r="F103" s="8">
         <f t="shared" si="21"/>
         <v>541501.22000000172</v>
       </c>
@@ -2848,13 +2864,13 @@
       <c r="C104" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D104" s="8">
+      <c r="D104" s="7">
         <v>65544.86</v>
       </c>
-      <c r="E104" s="8">
-        <v>0</v>
-      </c>
-      <c r="F104" s="9">
+      <c r="E104" s="7">
+        <v>0</v>
+      </c>
+      <c r="F104" s="8">
         <f t="shared" si="21"/>
         <v>475956.36000000173</v>
       </c>
@@ -2869,13 +2885,13 @@
       <c r="C105" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D105" s="8">
+      <c r="D105" s="7">
         <v>64943.53</v>
       </c>
-      <c r="E105" s="8">
-        <v>0</v>
-      </c>
-      <c r="F105" s="9">
+      <c r="E105" s="7">
+        <v>0</v>
+      </c>
+      <c r="F105" s="8">
         <f t="shared" ref="F105" si="22">F104-D105+E105</f>
         <v>411012.8300000017</v>
       </c>
@@ -2890,13 +2906,13 @@
       <c r="C106" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D106" s="8">
+      <c r="D106" s="7">
         <v>78774.09113999999</v>
       </c>
-      <c r="E106" s="8">
-        <v>0</v>
-      </c>
-      <c r="F106" s="9">
+      <c r="E106" s="7">
+        <v>0</v>
+      </c>
+      <c r="F106" s="8">
         <f t="shared" ref="F106:F107" si="23">F105-D106+E106</f>
         <v>332238.73886000173</v>
       </c>
@@ -2917,7 +2933,7 @@
       <c r="E107" s="6">
         <v>0</v>
       </c>
-      <c r="F107" s="9">
+      <c r="F107" s="8">
         <f t="shared" si="23"/>
         <v>332223.75886000175</v>
       </c>
@@ -2932,13 +2948,13 @@
       <c r="C108" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D108" s="8">
+      <c r="D108" s="7">
         <v>78173.429879999996</v>
       </c>
-      <c r="E108" s="8">
-        <v>0</v>
-      </c>
-      <c r="F108" s="9">
+      <c r="E108" s="7">
+        <v>0</v>
+      </c>
+      <c r="F108" s="8">
         <f t="shared" ref="F108" si="24">F107-D108+E108</f>
         <v>254050.32898000174</v>
       </c>
@@ -2953,13 +2969,13 @@
       <c r="C109" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D109" s="11">
+      <c r="D109" s="10">
         <v>77572.095804000011</v>
       </c>
-      <c r="E109" s="8">
-        <v>0</v>
-      </c>
-      <c r="F109" s="9">
+      <c r="E109" s="7">
+        <v>0</v>
+      </c>
+      <c r="F109" s="8">
         <f t="shared" ref="F109:F130" si="25">F108-D109+E109</f>
         <v>176478.23317600173</v>
       </c>
@@ -2980,7 +2996,7 @@
       <c r="E110" s="6">
         <v>0</v>
       </c>
-      <c r="F110" s="9">
+      <c r="F110" s="8">
         <f t="shared" si="25"/>
         <v>176463.25317600172</v>
       </c>
@@ -3001,7 +3017,7 @@
       <c r="E111" s="6">
         <v>0</v>
       </c>
-      <c r="F111" s="9">
+      <c r="F111" s="8">
         <f t="shared" si="25"/>
         <v>176443.25317600172</v>
       </c>
@@ -3016,13 +3032,13 @@
       <c r="C112" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D112" s="11">
+      <c r="D112" s="10">
         <v>76970.761727999998</v>
       </c>
-      <c r="E112" s="8">
-        <v>0</v>
-      </c>
-      <c r="F112" s="9">
+      <c r="E112" s="7">
+        <v>0</v>
+      </c>
+      <c r="F112" s="8">
         <f t="shared" si="25"/>
         <v>99472.491448001718</v>
       </c>
@@ -3043,7 +3059,7 @@
       <c r="E113" s="6">
         <v>0</v>
       </c>
-      <c r="F113" s="9">
+      <c r="F113" s="8">
         <f t="shared" si="25"/>
         <v>99457.511448001722</v>
       </c>
@@ -3058,13 +3074,13 @@
       <c r="C114" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D114" s="10">
+      <c r="D114" s="9">
         <v>47805.650730000001</v>
       </c>
-      <c r="E114" s="8">
-        <v>0</v>
-      </c>
-      <c r="F114" s="9">
+      <c r="E114" s="7">
+        <v>0</v>
+      </c>
+      <c r="F114" s="8">
         <f t="shared" si="25"/>
         <v>51651.860718001721</v>
       </c>
@@ -3079,13 +3095,13 @@
       <c r="C115" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D115" s="10">
+      <c r="D115" s="9">
         <v>23572.094448</v>
       </c>
-      <c r="E115" s="8">
-        <v>0</v>
-      </c>
-      <c r="F115" s="9">
+      <c r="E115" s="7">
+        <v>0</v>
+      </c>
+      <c r="F115" s="8">
         <f t="shared" si="25"/>
         <v>28079.766270001721</v>
       </c>
@@ -3106,7 +3122,7 @@
       <c r="E116" s="6">
         <v>0</v>
       </c>
-      <c r="F116" s="9">
+      <c r="F116" s="8">
         <f t="shared" si="25"/>
         <v>28064.786270001721</v>
       </c>
@@ -3127,7 +3143,7 @@
       <c r="E117" s="6">
         <v>0</v>
       </c>
-      <c r="F117" s="9">
+      <c r="F117" s="8">
         <f t="shared" si="25"/>
         <v>27632.786270001721</v>
       </c>
@@ -3145,10 +3161,10 @@
       <c r="D118" s="6">
         <v>0</v>
       </c>
-      <c r="E118" s="13">
+      <c r="E118" s="12">
         <v>1080</v>
       </c>
-      <c r="F118" s="9">
+      <c r="F118" s="8">
         <f t="shared" si="25"/>
         <v>28712.786270001721</v>
       </c>
@@ -3166,10 +3182,10 @@
       <c r="D119" s="6">
         <v>0</v>
       </c>
-      <c r="E119" s="13">
+      <c r="E119" s="12">
         <v>1350</v>
       </c>
-      <c r="F119" s="9">
+      <c r="F119" s="8">
         <f t="shared" si="25"/>
         <v>30062.786270001721</v>
       </c>
@@ -3187,10 +3203,10 @@
       <c r="D120" s="6">
         <v>0</v>
       </c>
-      <c r="E120" s="13">
+      <c r="E120" s="12">
         <v>5832</v>
       </c>
-      <c r="F120" s="9">
+      <c r="F120" s="8">
         <f t="shared" si="25"/>
         <v>35894.786270001721</v>
       </c>
@@ -3208,10 +3224,10 @@
       <c r="D121" s="6">
         <v>0</v>
       </c>
-      <c r="E121" s="13">
+      <c r="E121" s="12">
         <v>20250</v>
       </c>
-      <c r="F121" s="9">
+      <c r="F121" s="8">
         <f t="shared" si="25"/>
         <v>56144.786270001721</v>
       </c>
@@ -3226,13 +3242,13 @@
       <c r="C122" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D122" s="13">
+      <c r="D122" s="12">
         <v>11674</v>
       </c>
       <c r="E122" s="6">
         <v>0</v>
       </c>
-      <c r="F122" s="9">
+      <c r="F122" s="8">
         <f t="shared" si="25"/>
         <v>44470.786270001721</v>
       </c>
@@ -3250,10 +3266,10 @@
       <c r="D123" s="6">
         <v>0</v>
       </c>
-      <c r="E123" s="13">
+      <c r="E123" s="12">
         <v>2230.1999999999998</v>
       </c>
-      <c r="F123" s="9">
+      <c r="F123" s="8">
         <f t="shared" si="25"/>
         <v>46700.986270001718</v>
       </c>
@@ -3271,10 +3287,10 @@
       <c r="D124" s="6">
         <v>0</v>
       </c>
-      <c r="E124" s="13">
+      <c r="E124" s="12">
         <v>7020</v>
       </c>
-      <c r="F124" s="9">
+      <c r="F124" s="8">
         <f t="shared" si="25"/>
         <v>53720.986270001718</v>
       </c>
@@ -3292,10 +3308,10 @@
       <c r="D125" s="6">
         <v>0</v>
       </c>
-      <c r="E125" s="13">
+      <c r="E125" s="12">
         <v>4860</v>
       </c>
-      <c r="F125" s="9">
+      <c r="F125" s="8">
         <f t="shared" si="25"/>
         <v>58580.986270001718</v>
       </c>
@@ -3313,10 +3329,10 @@
       <c r="D126" s="6">
         <v>0</v>
       </c>
-      <c r="E126" s="13">
+      <c r="E126" s="12">
         <v>3564</v>
       </c>
-      <c r="F126" s="9">
+      <c r="F126" s="8">
         <f t="shared" si="25"/>
         <v>62144.986270001718</v>
       </c>
@@ -3334,10 +3350,10 @@
       <c r="D127" s="6">
         <v>0</v>
       </c>
-      <c r="E127" s="13">
+      <c r="E127" s="12">
         <v>74000</v>
       </c>
-      <c r="F127" s="9">
+      <c r="F127" s="8">
         <v>137637.01</v>
       </c>
     </row>
@@ -3357,11 +3373,11 @@
       <c r="E128" s="6">
         <v>4640</v>
       </c>
-      <c r="F128" s="9">
+      <c r="F128" s="8">
         <f t="shared" si="25"/>
         <v>142277.01</v>
       </c>
-      <c r="G128" s="12"/>
+      <c r="G128" s="11"/>
     </row>
     <row r="129" spans="1:7" ht="15" customHeight="1">
       <c r="A129" s="4" t="s">
@@ -3379,7 +3395,7 @@
       <c r="E129" s="6">
         <v>8370</v>
       </c>
-      <c r="F129" s="9">
+      <c r="F129" s="8">
         <f t="shared" si="25"/>
         <v>150647.01</v>
       </c>
@@ -3400,7 +3416,7 @@
       <c r="E130" s="6">
         <v>13650</v>
       </c>
-      <c r="F130" s="9">
+      <c r="F130" s="8">
         <f t="shared" si="25"/>
         <v>164297.01</v>
       </c>
@@ -3421,7 +3437,7 @@
       <c r="E131" s="6">
         <v>5760</v>
       </c>
-      <c r="F131" s="9">
+      <c r="F131" s="8">
         <f t="shared" ref="F131:F135" si="26">F130-D131+E131</f>
         <v>170057.01</v>
       </c>
@@ -3442,7 +3458,7 @@
       <c r="E132" s="6">
         <v>0</v>
       </c>
-      <c r="F132" s="9">
+      <c r="F132" s="8">
         <f t="shared" si="26"/>
         <v>170037.01</v>
       </c>
@@ -3463,7 +3479,7 @@
       <c r="E133" s="6">
         <v>0</v>
       </c>
-      <c r="F133" s="9">
+      <c r="F133" s="8">
         <f t="shared" si="26"/>
         <v>169605.01</v>
       </c>
@@ -3484,7 +3500,7 @@
       <c r="E134" s="6">
         <v>3510</v>
       </c>
-      <c r="F134" s="9">
+      <c r="F134" s="8">
         <f t="shared" si="26"/>
         <v>173115.01</v>
       </c>
@@ -3499,13 +3515,13 @@
       <c r="C135" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D135" s="10">
+      <c r="D135" s="9">
         <v>22850.5</v>
       </c>
-      <c r="E135" s="8">
-        <v>0</v>
-      </c>
-      <c r="F135" s="9">
+      <c r="E135" s="7">
+        <v>0</v>
+      </c>
+      <c r="F135" s="8">
         <f t="shared" si="26"/>
         <v>150264.51</v>
       </c>
@@ -3520,13 +3536,13 @@
       <c r="C136" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D136" s="10">
+      <c r="D136" s="9">
         <v>30667.77</v>
       </c>
-      <c r="E136" s="8">
-        <v>0</v>
-      </c>
-      <c r="F136" s="9">
+      <c r="E136" s="7">
+        <v>0</v>
+      </c>
+      <c r="F136" s="8">
         <f t="shared" ref="F136:F141" si="27">F135-D136+E136</f>
         <v>119596.74</v>
       </c>
@@ -3547,7 +3563,7 @@
       <c r="E137" s="6">
         <v>0</v>
       </c>
-      <c r="F137" s="9">
+      <c r="F137" s="8">
         <f t="shared" si="27"/>
         <v>119581.76000000001</v>
       </c>
@@ -3568,11 +3584,11 @@
       <c r="E138" s="6">
         <v>5400</v>
       </c>
-      <c r="F138" s="9">
+      <c r="F138" s="8">
         <f t="shared" si="27"/>
         <v>124981.76000000001</v>
       </c>
-      <c r="G138" s="12"/>
+      <c r="G138" s="11"/>
     </row>
     <row r="139" spans="1:7" ht="15" customHeight="1">
       <c r="A139" s="4" t="s">
@@ -3590,7 +3606,7 @@
       <c r="E139" s="6">
         <v>2592</v>
       </c>
-      <c r="F139" s="9">
+      <c r="F139" s="8">
         <f t="shared" si="27"/>
         <v>127573.76000000001</v>
       </c>
@@ -3611,7 +3627,7 @@
       <c r="E140" s="6">
         <v>74520</v>
       </c>
-      <c r="F140" s="9">
+      <c r="F140" s="8">
         <f t="shared" si="27"/>
         <v>202093.76</v>
       </c>
@@ -3632,7 +3648,7 @@
       <c r="E141" s="6">
         <v>1404</v>
       </c>
-      <c r="F141" s="9">
+      <c r="F141" s="8">
         <f t="shared" si="27"/>
         <v>203497.76</v>
       </c>
@@ -3647,13 +3663,13 @@
       <c r="C142" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D142" s="10">
+      <c r="D142" s="9">
         <v>76669.45</v>
       </c>
-      <c r="E142" s="8">
-        <v>0</v>
-      </c>
-      <c r="F142" s="9">
+      <c r="E142" s="7">
+        <v>0</v>
+      </c>
+      <c r="F142" s="8">
         <f t="shared" ref="F142:F144" si="28">F141-D142+E142</f>
         <v>126828.31000000001</v>
       </c>
@@ -3674,7 +3690,7 @@
       <c r="E143" s="6">
         <v>0</v>
       </c>
-      <c r="F143" s="9">
+      <c r="F143" s="8">
         <f t="shared" si="28"/>
         <v>126813.33000000002</v>
       </c>
@@ -3695,7 +3711,7 @@
       <c r="E144" s="6">
         <v>7503.52</v>
       </c>
-      <c r="F144" s="9">
+      <c r="F144" s="8">
         <f t="shared" si="28"/>
         <v>134316.85</v>
       </c>
@@ -3716,7 +3732,7 @@
       <c r="E145" s="6">
         <v>23085</v>
       </c>
-      <c r="F145" s="9">
+      <c r="F145" s="8">
         <f t="shared" ref="F145:F155" si="29">F144-D145+E145</f>
         <v>157401.85</v>
       </c>
@@ -3737,7 +3753,7 @@
       <c r="E146" s="6">
         <v>0</v>
       </c>
-      <c r="F146" s="9">
+      <c r="F146" s="8">
         <f t="shared" si="29"/>
         <v>134601.85</v>
       </c>
@@ -3758,7 +3774,7 @@
       <c r="E147" s="6">
         <v>0</v>
       </c>
-      <c r="F147" s="9">
+      <c r="F147" s="8">
         <f t="shared" si="29"/>
         <v>124601.85</v>
       </c>
@@ -3773,13 +3789,13 @@
       <c r="C148" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D148" s="10">
+      <c r="D148" s="9">
         <v>76669.45</v>
       </c>
-      <c r="E148" s="8">
-        <v>0</v>
-      </c>
-      <c r="F148" s="9">
+      <c r="E148" s="7">
+        <v>0</v>
+      </c>
+      <c r="F148" s="8">
         <f t="shared" si="29"/>
         <v>47932.400000000009</v>
       </c>
@@ -3794,13 +3810,13 @@
       <c r="C149" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D149" s="10">
+      <c r="D149" s="9">
         <v>23050.94</v>
       </c>
-      <c r="E149" s="8">
-        <v>0</v>
-      </c>
-      <c r="F149" s="9">
+      <c r="E149" s="7">
+        <v>0</v>
+      </c>
+      <c r="F149" s="8">
         <f t="shared" si="29"/>
         <v>24881.46000000001</v>
       </c>
@@ -3821,7 +3837,7 @@
       <c r="E150" s="6">
         <v>0</v>
       </c>
-      <c r="F150" s="9">
+      <c r="F150" s="8">
         <f t="shared" si="29"/>
         <v>24866.48000000001</v>
       </c>
@@ -3842,7 +3858,7 @@
       <c r="E151" s="6">
         <v>0</v>
       </c>
-      <c r="F151" s="9">
+      <c r="F151" s="8">
         <f t="shared" si="29"/>
         <v>23566.48000000001</v>
       </c>
@@ -3857,13 +3873,13 @@
       <c r="C152" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D152" s="10">
-        <v>0</v>
-      </c>
-      <c r="E152" s="8">
+      <c r="D152" s="9">
+        <v>0</v>
+      </c>
+      <c r="E152" s="7">
         <v>51485.71</v>
       </c>
-      <c r="F152" s="9">
+      <c r="F152" s="8">
         <f t="shared" si="29"/>
         <v>75052.19</v>
       </c>
@@ -3884,7 +3900,7 @@
       <c r="E153" s="6">
         <v>0</v>
       </c>
-      <c r="F153" s="9">
+      <c r="F153" s="8">
         <f t="shared" si="29"/>
         <v>75037.210000000006</v>
       </c>
@@ -3899,13 +3915,13 @@
       <c r="C154" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D154" s="10">
+      <c r="D154" s="9">
         <v>24454.05</v>
       </c>
-      <c r="E154" s="8">
-        <v>0</v>
-      </c>
-      <c r="F154" s="9">
+      <c r="E154" s="7">
+        <v>0</v>
+      </c>
+      <c r="F154" s="8">
         <f t="shared" si="29"/>
         <v>50583.16</v>
       </c>
@@ -3926,7 +3942,7 @@
       <c r="E155" s="6">
         <v>0</v>
       </c>
-      <c r="F155" s="9">
+      <c r="F155" s="8">
         <f t="shared" si="29"/>
         <v>50568.18</v>
       </c>
@@ -3947,7 +3963,7 @@
       <c r="E156" s="6">
         <v>6615</v>
       </c>
-      <c r="F156" s="9">
+      <c r="F156" s="8">
         <f t="shared" ref="F156" si="30">F155-D156+E156</f>
         <v>57183.18</v>
       </c>
@@ -3968,7 +3984,7 @@
       <c r="E157" s="6">
         <v>36800</v>
       </c>
-      <c r="F157" s="9">
+      <c r="F157" s="8">
         <f t="shared" ref="F157" si="31">F156-D157+E157</f>
         <v>93983.18</v>
       </c>
@@ -3989,7 +4005,7 @@
       <c r="E158" s="6">
         <v>0</v>
       </c>
-      <c r="F158" s="9">
+      <c r="F158" s="8">
         <f t="shared" ref="F158:F160" si="32">F157-D158+E158</f>
         <v>87083.18</v>
       </c>
@@ -4010,7 +4026,7 @@
       <c r="E159" s="6">
         <v>18673.2</v>
       </c>
-      <c r="F159" s="9">
+      <c r="F159" s="8">
         <f t="shared" si="32"/>
         <v>105756.37999999999</v>
       </c>
@@ -4031,7 +4047,7 @@
       <c r="E160" s="6">
         <v>6300</v>
       </c>
-      <c r="F160" s="9">
+      <c r="F160" s="8">
         <f t="shared" si="32"/>
         <v>112056.37999999999</v>
       </c>
@@ -4052,7 +4068,7 @@
       <c r="E161" s="6">
         <v>0</v>
       </c>
-      <c r="F161" s="9">
+      <c r="F161" s="8">
         <f t="shared" ref="F161:F167" si="33">F160-D161+E161</f>
         <v>104921.18</v>
       </c>
@@ -4067,13 +4083,13 @@
       <c r="C162" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D162" s="10">
+      <c r="D162" s="9">
         <v>23752.49</v>
       </c>
-      <c r="E162" s="8">
-        <v>0</v>
-      </c>
-      <c r="F162" s="9">
+      <c r="E162" s="7">
+        <v>0</v>
+      </c>
+      <c r="F162" s="8">
         <f t="shared" si="33"/>
         <v>81168.689999999988</v>
       </c>
@@ -4094,7 +4110,7 @@
       <c r="E163" s="6">
         <v>0</v>
       </c>
-      <c r="F163" s="9">
+      <c r="F163" s="8">
         <f t="shared" si="33"/>
         <v>81153.709999999992</v>
       </c>
@@ -4115,7 +4131,7 @@
       <c r="E164" s="6">
         <v>5170.5</v>
       </c>
-      <c r="F164" s="9">
+      <c r="F164" s="8">
         <f t="shared" si="33"/>
         <v>86324.209999999992</v>
       </c>
@@ -4130,13 +4146,13 @@
       <c r="C165" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D165" s="10">
+      <c r="D165" s="9">
         <v>20044.3</v>
       </c>
-      <c r="E165" s="8">
-        <v>0</v>
-      </c>
-      <c r="F165" s="9">
+      <c r="E165" s="7">
+        <v>0</v>
+      </c>
+      <c r="F165" s="8">
         <f t="shared" si="33"/>
         <v>66279.909999999989</v>
       </c>
@@ -4157,7 +4173,7 @@
       <c r="E166" s="6">
         <v>0</v>
       </c>
-      <c r="F166" s="9">
+      <c r="F166" s="8">
         <f t="shared" si="33"/>
         <v>66264.929999999993</v>
       </c>
@@ -4178,7 +4194,7 @@
       <c r="E167" s="6">
         <v>0</v>
       </c>
-      <c r="F167" s="9">
+      <c r="F167" s="8">
         <f t="shared" si="33"/>
         <v>66244.929999999993</v>
       </c>
@@ -4199,7 +4215,7 @@
       <c r="E168" s="6">
         <v>0</v>
       </c>
-      <c r="F168" s="9">
+      <c r="F168" s="8">
         <f t="shared" ref="F168:F169" si="34">F167-D168+E168</f>
         <v>33244.929999999993</v>
       </c>
@@ -4220,7 +4236,7 @@
       <c r="E169" s="6">
         <v>5265</v>
       </c>
-      <c r="F169" s="9">
+      <c r="F169" s="8">
         <f t="shared" si="34"/>
         <v>38509.929999999993</v>
       </c>
@@ -4241,7 +4257,7 @@
       <c r="E170" s="6">
         <v>2956.6</v>
       </c>
-      <c r="F170" s="9">
+      <c r="F170" s="8">
         <f t="shared" ref="F170" si="35">F169-D170+E170</f>
         <v>41466.529999999992</v>
       </c>
@@ -4262,7 +4278,7 @@
       <c r="E171" s="6">
         <v>0</v>
       </c>
-      <c r="F171" s="9">
+      <c r="F171" s="8">
         <f t="shared" ref="F171:F192" si="36">F170-D171+E171</f>
         <v>41030.529999999992</v>
       </c>
@@ -4277,13 +4293,13 @@
       <c r="C172" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D172" s="10">
-        <v>0</v>
-      </c>
-      <c r="E172" s="8">
+      <c r="D172" s="9">
+        <v>0</v>
+      </c>
+      <c r="E172" s="7">
         <v>25543.3</v>
       </c>
-      <c r="F172" s="9">
+      <c r="F172" s="8">
         <f t="shared" si="36"/>
         <v>66573.829999999987</v>
       </c>
@@ -4298,13 +4314,13 @@
       <c r="C173" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D173" s="10">
-        <v>0</v>
-      </c>
-      <c r="E173" s="8">
+      <c r="D173" s="9">
+        <v>0</v>
+      </c>
+      <c r="E173" s="7">
         <v>20953.490000000002</v>
       </c>
-      <c r="F173" s="9">
+      <c r="F173" s="8">
         <f t="shared" si="36"/>
         <v>87527.319999999992</v>
       </c>
@@ -4319,13 +4335,13 @@
       <c r="C174" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D174" s="10">
+      <c r="D174" s="9">
         <v>44498.34</v>
       </c>
-      <c r="E174" s="8">
-        <v>0</v>
-      </c>
-      <c r="F174" s="9">
+      <c r="E174" s="7">
+        <v>0</v>
+      </c>
+      <c r="F174" s="8">
         <f t="shared" si="36"/>
         <v>43028.979999999996</v>
       </c>
@@ -4346,7 +4362,7 @@
       <c r="E175" s="6">
         <v>0</v>
       </c>
-      <c r="F175" s="9">
+      <c r="F175" s="8">
         <f t="shared" si="36"/>
         <v>43013.999999999993</v>
       </c>
@@ -4361,13 +4377,13 @@
       <c r="C176" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D176" s="10">
-        <v>0</v>
-      </c>
-      <c r="E176" s="8">
+      <c r="D176" s="9">
+        <v>0</v>
+      </c>
+      <c r="E176" s="7">
         <v>24994.52</v>
       </c>
-      <c r="F176" s="9">
+      <c r="F176" s="8">
         <f t="shared" si="36"/>
         <v>68008.51999999999</v>
       </c>
@@ -4382,13 +4398,13 @@
       <c r="C177" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D177" s="10">
-        <v>0</v>
-      </c>
-      <c r="E177" s="8">
+      <c r="D177" s="9">
+        <v>0</v>
+      </c>
+      <c r="E177" s="7">
         <v>33525.58</v>
       </c>
-      <c r="F177" s="9">
+      <c r="F177" s="8">
         <f t="shared" si="36"/>
         <v>101534.09999999999</v>
       </c>
@@ -4409,7 +4425,7 @@
       <c r="E178" s="6">
         <v>0</v>
       </c>
-      <c r="F178" s="7">
+      <c r="F178" s="8">
         <f t="shared" si="36"/>
         <v>101519.12</v>
       </c>
@@ -4430,7 +4446,7 @@
       <c r="E179" s="6">
         <v>1620</v>
       </c>
-      <c r="F179" s="7">
+      <c r="F179" s="8">
         <f t="shared" si="36"/>
         <v>103139.12</v>
       </c>
@@ -4451,7 +4467,7 @@
       <c r="E180" s="6">
         <v>0</v>
       </c>
-      <c r="F180" s="9">
+      <c r="F180" s="8">
         <f t="shared" si="36"/>
         <v>102707.12</v>
       </c>
@@ -4466,13 +4482,13 @@
       <c r="C181" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D181" s="10">
-        <v>0</v>
-      </c>
-      <c r="E181" s="8">
+      <c r="D181" s="9">
+        <v>0</v>
+      </c>
+      <c r="E181" s="7">
         <v>24146.400000000001</v>
       </c>
-      <c r="F181" s="9">
+      <c r="F181" s="8">
         <f t="shared" si="36"/>
         <v>126853.51999999999</v>
       </c>
@@ -4493,7 +4509,7 @@
       <c r="E182" s="6">
         <v>0</v>
       </c>
-      <c r="F182" s="9">
+      <c r="F182" s="8">
         <f t="shared" si="36"/>
         <v>126838.54</v>
       </c>
@@ -4514,7 +4530,7 @@
       <c r="E183" s="6">
         <v>2064</v>
       </c>
-      <c r="F183" s="9">
+      <c r="F183" s="8">
         <f t="shared" si="36"/>
         <v>128902.54</v>
       </c>
@@ -4526,16 +4542,16 @@
       <c r="B184" s="4">
         <v>45096</v>
       </c>
-      <c r="C184" s="14" t="s">
+      <c r="C184" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D184" s="10">
+      <c r="D184" s="9">
         <v>44738.87</v>
       </c>
-      <c r="E184" s="8">
-        <v>0</v>
-      </c>
-      <c r="F184" s="9">
+      <c r="E184" s="7">
+        <v>0</v>
+      </c>
+      <c r="F184" s="8">
         <f t="shared" si="36"/>
         <v>84163.669999999984</v>
       </c>
@@ -4547,16 +4563,16 @@
       <c r="B185" s="4">
         <v>45096</v>
       </c>
-      <c r="C185" s="14" t="s">
+      <c r="C185" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D185" s="10">
+      <c r="D185" s="9">
         <v>45099.67</v>
       </c>
-      <c r="E185" s="8">
-        <v>0</v>
-      </c>
-      <c r="F185" s="9">
+      <c r="E185" s="7">
+        <v>0</v>
+      </c>
+      <c r="F185" s="8">
         <f t="shared" si="36"/>
         <v>39063.999999999985</v>
       </c>
@@ -4577,7 +4593,7 @@
       <c r="E186" s="6">
         <v>0</v>
       </c>
-      <c r="F186" s="9">
+      <c r="F186" s="8">
         <f t="shared" si="36"/>
         <v>39049.019999999982</v>
       </c>
@@ -4589,16 +4605,16 @@
       <c r="B187" s="4">
         <v>45097</v>
       </c>
-      <c r="C187" s="14" t="s">
+      <c r="C187" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D187" s="10">
-        <v>0</v>
-      </c>
-      <c r="E187" s="10">
+      <c r="D187" s="9">
+        <v>0</v>
+      </c>
+      <c r="E187" s="9">
         <v>76829.45</v>
       </c>
-      <c r="F187" s="9">
+      <c r="F187" s="8">
         <f t="shared" si="36"/>
         <v>115878.46999999997</v>
       </c>
@@ -4610,16 +4626,16 @@
       <c r="B188" s="4">
         <v>45097</v>
       </c>
-      <c r="C188" s="14" t="s">
+      <c r="C188" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D188" s="10">
-        <v>0</v>
-      </c>
-      <c r="E188" s="10">
+      <c r="D188" s="9">
+        <v>0</v>
+      </c>
+      <c r="E188" s="9">
         <v>76829.45</v>
       </c>
-      <c r="F188" s="9">
+      <c r="F188" s="8">
         <f t="shared" si="36"/>
         <v>192707.91999999998</v>
       </c>
@@ -4640,7 +4656,7 @@
       <c r="E189" s="6">
         <v>0</v>
       </c>
-      <c r="F189" s="9">
+      <c r="F189" s="8">
         <f t="shared" si="36"/>
         <v>192692.93999999997</v>
       </c>
@@ -4652,16 +4668,16 @@
       <c r="B190" s="4">
         <v>45098</v>
       </c>
-      <c r="C190" s="14" t="s">
+      <c r="C190" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D190" s="10">
+      <c r="D190" s="9">
         <v>21497.51</v>
       </c>
-      <c r="E190" s="8">
-        <v>0</v>
-      </c>
-      <c r="F190" s="9">
+      <c r="E190" s="7">
+        <v>0</v>
+      </c>
+      <c r="F190" s="8">
         <f t="shared" si="36"/>
         <v>171195.42999999996</v>
       </c>
@@ -4673,16 +4689,16 @@
       <c r="B191" s="4">
         <v>45096</v>
       </c>
-      <c r="C191" s="14" t="s">
+      <c r="C191" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D191" s="10">
+      <c r="D191" s="9">
         <v>71708.479999999996</v>
       </c>
-      <c r="E191" s="8">
-        <v>0</v>
-      </c>
-      <c r="F191" s="9">
+      <c r="E191" s="7">
+        <v>0</v>
+      </c>
+      <c r="F191" s="8">
         <f t="shared" si="36"/>
         <v>99486.949999999968</v>
       </c>
@@ -4703,7 +4719,7 @@
       <c r="E192" s="6">
         <v>0</v>
       </c>
-      <c r="F192" s="9">
+      <c r="F192" s="8">
         <f t="shared" si="36"/>
         <v>99471.969999999972</v>
       </c>
@@ -4724,7 +4740,7 @@
       <c r="E193" s="6">
         <v>6160.5</v>
       </c>
-      <c r="F193" s="9">
+      <c r="F193" s="8">
         <f t="shared" ref="F193:F203" si="37">F192-D193+E193</f>
         <v>105632.46999999997</v>
       </c>
@@ -4736,16 +4752,16 @@
       <c r="B194" s="4">
         <v>45099</v>
       </c>
-      <c r="C194" s="14" t="s">
+      <c r="C194" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D194" s="10">
+      <c r="D194" s="9">
         <v>30667.77</v>
       </c>
-      <c r="E194" s="8">
-        <v>0</v>
-      </c>
-      <c r="F194" s="9">
+      <c r="E194" s="7">
+        <v>0</v>
+      </c>
+      <c r="F194" s="8">
         <f t="shared" si="37"/>
         <v>74964.699999999968</v>
       </c>
@@ -4766,7 +4782,7 @@
       <c r="E195" s="6">
         <v>0</v>
       </c>
-      <c r="F195" s="9">
+      <c r="F195" s="8">
         <f t="shared" si="37"/>
         <v>74949.719999999972</v>
       </c>
@@ -4778,16 +4794,16 @@
       <c r="B196" s="4">
         <v>45100</v>
       </c>
-      <c r="C196" s="14" t="s">
+      <c r="C196" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D196" s="10">
+      <c r="D196" s="9">
         <v>30667.77</v>
       </c>
-      <c r="E196" s="8">
-        <v>0</v>
-      </c>
-      <c r="F196" s="9">
+      <c r="E196" s="7">
+        <v>0</v>
+      </c>
+      <c r="F196" s="8">
         <f t="shared" si="37"/>
         <v>44281.949999999968</v>
       </c>
@@ -4808,7 +4824,7 @@
       <c r="E197" s="6">
         <v>0</v>
       </c>
-      <c r="F197" s="9">
+      <c r="F197" s="8">
         <f t="shared" si="37"/>
         <v>44266.969999999965</v>
       </c>
@@ -4820,16 +4836,16 @@
       <c r="B198" s="4">
         <v>45104</v>
       </c>
-      <c r="C198" s="14" t="s">
+      <c r="C198" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D198" s="10">
-        <v>0</v>
-      </c>
-      <c r="E198" s="10">
+      <c r="D198" s="9">
+        <v>0</v>
+      </c>
+      <c r="E198" s="9">
         <v>32028.9</v>
       </c>
-      <c r="F198" s="9">
+      <c r="F198" s="8">
         <f t="shared" si="37"/>
         <v>76295.869999999966</v>
       </c>
@@ -4841,16 +4857,16 @@
       <c r="B199" s="4">
         <v>45104</v>
       </c>
-      <c r="C199" s="14" t="s">
+      <c r="C199" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D199" s="10">
+      <c r="D199" s="9">
         <v>21246.95</v>
       </c>
-      <c r="E199" s="8">
-        <v>0</v>
-      </c>
-      <c r="F199" s="9">
+      <c r="E199" s="7">
+        <v>0</v>
+      </c>
+      <c r="F199" s="8">
         <f t="shared" si="37"/>
         <v>55048.919999999969</v>
       </c>
@@ -4871,7 +4887,7 @@
       <c r="E200" s="6">
         <v>0</v>
       </c>
-      <c r="F200" s="9">
+      <c r="F200" s="8">
         <f t="shared" si="37"/>
         <v>55033.939999999966</v>
       </c>
@@ -4883,16 +4899,16 @@
       <c r="B201" s="4">
         <v>45105</v>
       </c>
-      <c r="C201" s="14" t="s">
+      <c r="C201" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D201" s="10">
+      <c r="D201" s="9">
         <v>21246.95</v>
       </c>
-      <c r="E201" s="8">
-        <v>0</v>
-      </c>
-      <c r="F201" s="9">
+      <c r="E201" s="7">
+        <v>0</v>
+      </c>
+      <c r="F201" s="8">
         <f t="shared" si="37"/>
         <v>33786.989999999962</v>
       </c>
@@ -4913,7 +4929,7 @@
       <c r="E202" s="6">
         <v>0</v>
       </c>
-      <c r="F202" s="9">
+      <c r="F202" s="8">
         <f t="shared" si="37"/>
         <v>33772.009999999958</v>
       </c>
@@ -4934,7 +4950,7 @@
       <c r="E203" s="6">
         <v>0</v>
       </c>
-      <c r="F203" s="9">
+      <c r="F203" s="8">
         <f t="shared" si="37"/>
         <v>23772.009999999958</v>
       </c>
@@ -4955,7 +4971,7 @@
       <c r="E204" s="6">
         <v>0</v>
       </c>
-      <c r="F204" s="7">
+      <c r="F204" s="8">
         <f t="shared" ref="F204:F210" si="38">F203-D204+E204</f>
         <v>23771.989999999958</v>
       </c>
@@ -4976,7 +4992,7 @@
       <c r="E205" s="6">
         <v>0</v>
       </c>
-      <c r="F205" s="9">
+      <c r="F205" s="8">
         <f t="shared" si="38"/>
         <v>15285.989999999958</v>
       </c>
@@ -4988,16 +5004,16 @@
       <c r="B206" s="4">
         <v>45110</v>
       </c>
-      <c r="C206" s="14" t="s">
+      <c r="C206" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D206" s="10">
-        <v>0</v>
-      </c>
-      <c r="E206" s="10">
+      <c r="D206" s="9">
+        <v>0</v>
+      </c>
+      <c r="E206" s="9">
         <v>22350.38</v>
       </c>
-      <c r="F206" s="9">
+      <c r="F206" s="8">
         <f t="shared" si="38"/>
         <v>37636.369999999959</v>
       </c>
@@ -5009,20 +5025,20 @@
       <c r="B207" s="4">
         <v>45110</v>
       </c>
-      <c r="C207" s="14" t="s">
+      <c r="C207" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D207" s="10">
-        <v>0</v>
-      </c>
-      <c r="E207" s="10">
+      <c r="D207" s="9">
+        <v>0</v>
+      </c>
+      <c r="E207" s="9">
         <v>22250.61</v>
       </c>
-      <c r="F207" s="9">
+      <c r="F207" s="8">
         <f t="shared" si="38"/>
         <v>59886.97999999996</v>
       </c>
-      <c r="G207" s="10"/>
+      <c r="G207" s="9"/>
     </row>
     <row r="208" spans="1:7" ht="15" customHeight="1">
       <c r="A208" s="4">
@@ -5040,7 +5056,7 @@
       <c r="E208" s="6">
         <v>0</v>
       </c>
-      <c r="F208" s="9">
+      <c r="F208" s="8">
         <f t="shared" si="38"/>
         <v>59871.999999999956</v>
       </c>
@@ -5052,16 +5068,16 @@
       <c r="B209" s="4">
         <v>45111</v>
       </c>
-      <c r="C209" s="14" t="s">
+      <c r="C209" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D209" s="10">
-        <v>0</v>
-      </c>
-      <c r="E209" s="8">
+      <c r="D209" s="9">
+        <v>0</v>
+      </c>
+      <c r="E209" s="7">
         <v>260419.67694</v>
       </c>
-      <c r="F209" s="9">
+      <c r="F209" s="8">
         <f t="shared" si="38"/>
         <v>320291.67693999998</v>
       </c>
@@ -5082,11 +5098,11 @@
       <c r="E210" s="6">
         <v>0</v>
       </c>
-      <c r="F210" s="9">
+      <c r="F210" s="8">
         <f t="shared" si="38"/>
         <v>320276.69693999999</v>
       </c>
-      <c r="G210" s="10"/>
+      <c r="G210" s="9"/>
     </row>
     <row r="211" spans="1:7" ht="15" customHeight="1">
       <c r="A211" s="4">
@@ -5095,16 +5111,16 @@
       <c r="B211" s="4">
         <v>45113</v>
       </c>
-      <c r="C211" s="14" t="s">
+      <c r="C211" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D211" s="10">
-        <v>0</v>
-      </c>
-      <c r="E211" s="8">
+      <c r="D211" s="9">
+        <v>0</v>
+      </c>
+      <c r="E211" s="7">
         <v>32148.63</v>
       </c>
-      <c r="F211" s="9">
+      <c r="F211" s="8">
         <f t="shared" ref="F211:F212" si="39">F210-D211+E211</f>
         <v>352425.32694</v>
       </c>
@@ -5125,7 +5141,7 @@
       <c r="E212" s="6">
         <v>0</v>
       </c>
-      <c r="F212" s="9">
+      <c r="F212" s="8">
         <f t="shared" si="39"/>
         <v>352410.34694000002</v>
       </c>
@@ -5137,17 +5153,17 @@
       <c r="B213" s="4">
         <v>45114</v>
       </c>
-      <c r="C213" s="14" t="s">
+      <c r="C213" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D213" s="10">
+      <c r="D213" s="9">
         <v>61335.55</v>
       </c>
-      <c r="E213" s="8">
-        <v>0</v>
-      </c>
-      <c r="F213" s="9">
-        <f t="shared" ref="F213:F227" si="40">F212-D213+E213</f>
+      <c r="E213" s="7">
+        <v>0</v>
+      </c>
+      <c r="F213" s="8">
+        <f t="shared" ref="F213:F228" si="40">F212-D213+E213</f>
         <v>291074.79694000003</v>
       </c>
     </row>
@@ -5167,7 +5183,7 @@
       <c r="E214" s="6">
         <v>0</v>
       </c>
-      <c r="F214" s="9">
+      <c r="F214" s="8">
         <f t="shared" si="40"/>
         <v>291059.81694000005</v>
       </c>
@@ -5188,7 +5204,7 @@
       <c r="E215" s="6">
         <v>0</v>
       </c>
-      <c r="F215" s="9">
+      <c r="F215" s="8">
         <f t="shared" si="40"/>
         <v>291039.81694000005</v>
       </c>
@@ -5209,7 +5225,7 @@
       <c r="E216" s="6">
         <v>3973.46</v>
       </c>
-      <c r="F216" s="9">
+      <c r="F216" s="8">
         <f t="shared" si="40"/>
         <v>295013.27694000007</v>
       </c>
@@ -5221,16 +5237,16 @@
       <c r="B217" s="4">
         <v>45117</v>
       </c>
-      <c r="C217" s="14" t="s">
+      <c r="C217" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D217" s="10">
+      <c r="D217" s="9">
         <v>75667.23</v>
       </c>
-      <c r="E217" s="8">
-        <v>0</v>
-      </c>
-      <c r="F217" s="9">
+      <c r="E217" s="7">
+        <v>0</v>
+      </c>
+      <c r="F217" s="8">
         <f t="shared" si="40"/>
         <v>219346.04694000009</v>
       </c>
@@ -5251,7 +5267,7 @@
       <c r="E218" s="6">
         <v>0</v>
       </c>
-      <c r="F218" s="9">
+      <c r="F218" s="8">
         <f t="shared" si="40"/>
         <v>219331.06694000008</v>
       </c>
@@ -5272,7 +5288,7 @@
       <c r="E219" s="6">
         <v>2.2400000000000002</v>
       </c>
-      <c r="F219" s="9">
+      <c r="F219" s="8">
         <f t="shared" si="40"/>
         <v>219333.30694000007</v>
       </c>
@@ -5293,7 +5309,7 @@
       <c r="E220" s="6">
         <v>1080</v>
       </c>
-      <c r="F220" s="9">
+      <c r="F220" s="8">
         <f t="shared" si="40"/>
         <v>220413.30694000007</v>
       </c>
@@ -5305,16 +5321,16 @@
       <c r="B221" s="4">
         <v>45118</v>
       </c>
-      <c r="C221" s="14" t="s">
+      <c r="C221" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D221" s="10">
+      <c r="D221" s="9">
         <v>62137.32</v>
       </c>
-      <c r="E221" s="8">
-        <v>0</v>
-      </c>
-      <c r="F221" s="9">
+      <c r="E221" s="7">
+        <v>0</v>
+      </c>
+      <c r="F221" s="8">
         <f t="shared" si="40"/>
         <v>158275.98694000006</v>
       </c>
@@ -5335,7 +5351,7 @@
       <c r="E222" s="6">
         <v>0</v>
       </c>
-      <c r="F222" s="9">
+      <c r="F222" s="8">
         <f t="shared" si="40"/>
         <v>158261.00694000005</v>
       </c>
@@ -5347,16 +5363,16 @@
       <c r="B223" s="4">
         <v>45121</v>
       </c>
-      <c r="C223" s="14" t="s">
+      <c r="C223" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D223" s="10">
+      <c r="D223" s="9">
         <v>41130.9</v>
       </c>
-      <c r="E223" s="8">
-        <v>0</v>
-      </c>
-      <c r="F223" s="9">
+      <c r="E223" s="7">
+        <v>0</v>
+      </c>
+      <c r="F223" s="8">
         <f t="shared" si="40"/>
         <v>117130.10694000006</v>
       </c>
@@ -5377,12 +5393,12 @@
       <c r="E224" s="6">
         <v>0</v>
       </c>
-      <c r="F224" s="9">
+      <c r="F224" s="8">
         <f t="shared" si="40"/>
         <v>117115.12694000006</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="15" customHeight="1">
+    <row r="225" spans="1:7" ht="15" customHeight="1">
       <c r="A225" s="4" t="s">
         <v>6</v>
       </c>
@@ -5398,33 +5414,33 @@
       <c r="E225" s="6">
         <v>0</v>
       </c>
-      <c r="F225" s="7">
+      <c r="F225" s="8">
         <f t="shared" si="40"/>
         <v>87115.12694000006</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="15" customHeight="1">
+    <row r="226" spans="1:7" ht="15" customHeight="1">
       <c r="A226" s="4">
         <v>45120</v>
       </c>
       <c r="B226" s="4">
         <v>45124</v>
       </c>
-      <c r="C226" s="14" t="s">
+      <c r="C226" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D226" s="10">
-        <v>0</v>
-      </c>
-      <c r="E226" s="8">
+      <c r="D226" s="9">
+        <v>0</v>
+      </c>
+      <c r="E226" s="7">
         <v>40410.29</v>
       </c>
-      <c r="F226" s="9">
+      <c r="F226" s="8">
         <f t="shared" si="40"/>
         <v>127525.41694000005</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="15" customHeight="1">
+    <row r="227" spans="1:7" ht="15" customHeight="1">
       <c r="A227" s="4">
         <v>45120</v>
       </c>
@@ -5440,9 +5456,746 @@
       <c r="E227" s="6">
         <v>0</v>
       </c>
-      <c r="F227" s="9">
+      <c r="F227" s="8">
         <f t="shared" si="40"/>
         <v>127510.43694000006</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="15" customHeight="1">
+      <c r="A228" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B228" s="4">
+        <v>45124</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D228" s="6">
+        <v>432</v>
+      </c>
+      <c r="E228" s="6">
+        <v>0</v>
+      </c>
+      <c r="F228" s="8">
+        <f t="shared" si="40"/>
+        <v>127078.43694000006</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="15" customHeight="1">
+      <c r="A229" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B229" s="4">
+        <v>45129</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D229" s="6">
+        <v>37000</v>
+      </c>
+      <c r="E229" s="6">
+        <v>0</v>
+      </c>
+      <c r="F229" s="8">
+        <f t="shared" ref="F229:F235" si="41">F228-D229+E229</f>
+        <v>90078.436940000058</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="15" customHeight="1">
+      <c r="A230" s="4">
+        <v>45128</v>
+      </c>
+      <c r="B230" s="4">
+        <v>45132</v>
+      </c>
+      <c r="C230" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D230" s="9">
+        <v>0</v>
+      </c>
+      <c r="E230" s="7">
+        <v>66652.039999999994</v>
+      </c>
+      <c r="F230" s="8">
+        <f t="shared" si="41"/>
+        <v>156730.47694000005</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="15" customHeight="1">
+      <c r="A231" s="4">
+        <v>45128</v>
+      </c>
+      <c r="B231" s="4">
+        <v>45132</v>
+      </c>
+      <c r="C231" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D231" s="9">
+        <v>24654.48</v>
+      </c>
+      <c r="E231" s="7">
+        <v>0</v>
+      </c>
+      <c r="F231" s="8">
+        <f t="shared" si="41"/>
+        <v>132075.99694000004</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="15" customHeight="1">
+      <c r="A232" s="4">
+        <v>45128</v>
+      </c>
+      <c r="B232" s="4">
+        <v>45132</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D232" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E232" s="6">
+        <v>0</v>
+      </c>
+      <c r="F232" s="8">
+        <f t="shared" si="41"/>
+        <v>132061.01694000003</v>
+      </c>
+      <c r="G232" s="9"/>
+    </row>
+    <row r="233" spans="1:7" ht="15" customHeight="1">
+      <c r="A233" s="4">
+        <v>45132</v>
+      </c>
+      <c r="B233" s="4">
+        <v>45134</v>
+      </c>
+      <c r="C233" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D233" s="9">
+        <v>74665.02</v>
+      </c>
+      <c r="E233" s="7">
+        <v>0</v>
+      </c>
+      <c r="F233" s="8">
+        <f t="shared" si="41"/>
+        <v>57395.996940000026</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="15" customHeight="1">
+      <c r="A234" s="4">
+        <v>45132</v>
+      </c>
+      <c r="B234" s="4">
+        <v>45134</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D234" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E234" s="6">
+        <v>0</v>
+      </c>
+      <c r="F234" s="8">
+        <f t="shared" si="41"/>
+        <v>57381.016940000023</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="15" customHeight="1">
+      <c r="A235" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B235" s="4">
+        <v>45137</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D235" s="6">
+        <v>23653.56</v>
+      </c>
+      <c r="E235" s="6">
+        <v>0</v>
+      </c>
+      <c r="F235" s="8">
+        <f t="shared" si="41"/>
+        <v>33727.456940000018</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="15" customHeight="1">
+      <c r="A236" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B236" s="4">
+        <v>45137</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D236" s="6">
+        <v>0</v>
+      </c>
+      <c r="E236" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F236" s="8">
+        <f t="shared" ref="F236:F240" si="42">F235-D236+E236</f>
+        <v>43727.456940000018</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="15" customHeight="1">
+      <c r="A237" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B237" s="4">
+        <v>45138</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D237" s="6">
+        <v>0</v>
+      </c>
+      <c r="E237" s="6">
+        <v>3000</v>
+      </c>
+      <c r="F237" s="8">
+        <f t="shared" ref="F237" si="43">F236-D237+E237</f>
+        <v>46727.456940000018</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="15" customHeight="1">
+      <c r="A238" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B238" s="4">
+        <v>45138</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D238" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E238" s="6">
+        <v>0</v>
+      </c>
+      <c r="F238" s="8">
+        <f t="shared" ref="F238:F260" si="44">F237-D238+E238</f>
+        <v>36727.456940000018</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="15" customHeight="1">
+      <c r="A239" s="4">
+        <v>45133</v>
+      </c>
+      <c r="B239" s="4">
+        <v>45138</v>
+      </c>
+      <c r="C239" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D239" s="9">
+        <v>24053.16</v>
+      </c>
+      <c r="E239" s="7">
+        <v>0</v>
+      </c>
+      <c r="F239" s="8">
+        <f t="shared" si="44"/>
+        <v>12674.296940000018</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" ht="15" customHeight="1">
+      <c r="A240" s="4">
+        <v>45133</v>
+      </c>
+      <c r="B240" s="4">
+        <v>45138</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D240" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E240" s="6">
+        <v>0</v>
+      </c>
+      <c r="F240" s="8">
+        <f t="shared" si="44"/>
+        <v>12659.316940000019</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="15" customHeight="1">
+      <c r="A241" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B241" s="4">
+        <v>45139</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D241" s="6">
+        <v>0</v>
+      </c>
+      <c r="E241" s="6">
+        <v>14000</v>
+      </c>
+      <c r="F241" s="15">
+        <f t="shared" si="44"/>
+        <v>26659.316940000019</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="15" customHeight="1">
+      <c r="A242" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B242" s="4">
+        <v>45139</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D242" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E242" s="6">
+        <v>0</v>
+      </c>
+      <c r="F242" s="15">
+        <f t="shared" si="44"/>
+        <v>25659.316940000019</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="15" customHeight="1">
+      <c r="A243" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B243" s="4">
+        <v>45139</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D243" s="6">
+        <v>10324</v>
+      </c>
+      <c r="E243" s="6">
+        <v>0</v>
+      </c>
+      <c r="F243" s="15">
+        <f t="shared" si="44"/>
+        <v>15335.316940000019</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="15" customHeight="1">
+      <c r="A244" s="4">
+        <v>45134</v>
+      </c>
+      <c r="B244" s="4">
+        <v>45140</v>
+      </c>
+      <c r="C244" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D244" s="9">
+        <v>0</v>
+      </c>
+      <c r="E244" s="14">
+        <v>1491.67</v>
+      </c>
+      <c r="F244" s="15">
+        <f t="shared" si="44"/>
+        <v>16826.986940000017</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="15" customHeight="1">
+      <c r="A245" s="4">
+        <v>45134</v>
+      </c>
+      <c r="B245" s="4">
+        <v>45140</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D245" s="6">
+        <v>0</v>
+      </c>
+      <c r="E245" s="6">
+        <v>0</v>
+      </c>
+      <c r="F245" s="8">
+        <f t="shared" si="44"/>
+        <v>16826.986940000017</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="15" customHeight="1">
+      <c r="A246" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B246" s="4">
+        <v>45151</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D246" s="6">
+        <v>20</v>
+      </c>
+      <c r="E246" s="6">
+        <v>0</v>
+      </c>
+      <c r="F246" s="8">
+        <f t="shared" si="44"/>
+        <v>16806.986940000017</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="15" customHeight="1">
+      <c r="A247" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B247" s="4">
+        <v>45155</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D247" s="6">
+        <v>432</v>
+      </c>
+      <c r="E247" s="6">
+        <v>0</v>
+      </c>
+      <c r="F247" s="15">
+        <f t="shared" si="44"/>
+        <v>16374.986940000017</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="15" customHeight="1">
+      <c r="A248" s="4">
+        <v>45153</v>
+      </c>
+      <c r="B248" s="4">
+        <v>45155</v>
+      </c>
+      <c r="C248" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D248" s="9">
+        <v>0</v>
+      </c>
+      <c r="E248" s="7">
+        <v>65734.080000000002</v>
+      </c>
+      <c r="F248" s="8">
+        <f t="shared" si="44"/>
+        <v>82109.066940000019</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="15" customHeight="1">
+      <c r="A249" s="4">
+        <v>45153</v>
+      </c>
+      <c r="B249" s="4">
+        <v>45155</v>
+      </c>
+      <c r="C249" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D249" s="9">
+        <v>0</v>
+      </c>
+      <c r="E249" s="7">
+        <v>78126.570000000007</v>
+      </c>
+      <c r="F249" s="8">
+        <f t="shared" si="44"/>
+        <v>160235.63694000003</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="15" customHeight="1">
+      <c r="A250" s="4">
+        <v>45153</v>
+      </c>
+      <c r="B250" s="4">
+        <v>45155</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D250" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E250" s="6">
+        <v>0</v>
+      </c>
+      <c r="F250" s="15">
+        <f t="shared" si="44"/>
+        <v>160220.65694000002</v>
+      </c>
+      <c r="G250" s="9"/>
+    </row>
+    <row r="251" spans="1:7" ht="15" customHeight="1">
+      <c r="A251" s="4">
+        <v>45154</v>
+      </c>
+      <c r="B251" s="4">
+        <v>45156</v>
+      </c>
+      <c r="C251" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D251" s="9">
+        <v>0</v>
+      </c>
+      <c r="E251" s="7">
+        <v>26341.52</v>
+      </c>
+      <c r="F251" s="8">
+        <f t="shared" si="44"/>
+        <v>186562.17694</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="15" customHeight="1">
+      <c r="A252" s="4">
+        <v>45154</v>
+      </c>
+      <c r="B252" s="4">
+        <v>45156</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D252" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E252" s="6">
+        <v>0</v>
+      </c>
+      <c r="F252" s="15">
+        <f t="shared" si="44"/>
+        <v>186547.19693999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="15" customHeight="1">
+      <c r="A253" s="4">
+        <v>45155</v>
+      </c>
+      <c r="B253" s="4">
+        <v>45159</v>
+      </c>
+      <c r="C253" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D253" s="9">
+        <v>110243.64</v>
+      </c>
+      <c r="E253" s="7">
+        <v>0</v>
+      </c>
+      <c r="F253" s="8">
+        <f t="shared" si="44"/>
+        <v>76303.556939999995</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="15" customHeight="1">
+      <c r="A254" s="4">
+        <v>45155</v>
+      </c>
+      <c r="B254" s="4">
+        <v>45159</v>
+      </c>
+      <c r="C254" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D254" s="9">
+        <v>0</v>
+      </c>
+      <c r="E254" s="7">
+        <v>22210.69</v>
+      </c>
+      <c r="F254" s="8">
+        <f t="shared" si="44"/>
+        <v>98514.246939999997</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" ht="15" customHeight="1">
+      <c r="A255" s="4">
+        <v>45155</v>
+      </c>
+      <c r="B255" s="4">
+        <v>45159</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D255" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E255" s="6">
+        <v>0</v>
+      </c>
+      <c r="F255" s="8">
+        <f t="shared" si="44"/>
+        <v>98499.266940000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="15" customHeight="1">
+      <c r="A256" s="4">
+        <v>45156</v>
+      </c>
+      <c r="B256" s="4">
+        <v>45160</v>
+      </c>
+      <c r="C256" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D256" s="9">
+        <v>21948.5</v>
+      </c>
+      <c r="E256" s="7">
+        <v>0</v>
+      </c>
+      <c r="F256" s="8">
+        <f t="shared" si="44"/>
+        <v>76550.766940000001</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="15" customHeight="1">
+      <c r="A257" s="4">
+        <v>45156</v>
+      </c>
+      <c r="B257" s="4">
+        <v>45160</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D257" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E257" s="6">
+        <v>0</v>
+      </c>
+      <c r="F257" s="15">
+        <f t="shared" si="44"/>
+        <v>76535.786940000005</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="15" customHeight="1">
+      <c r="A258" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B258" s="4">
+        <v>45163</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D258" s="6">
+        <v>0</v>
+      </c>
+      <c r="E258" s="6">
+        <v>1350</v>
+      </c>
+      <c r="F258" s="8">
+        <f t="shared" si="44"/>
+        <v>77885.786940000005</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="15" customHeight="1">
+      <c r="A259" s="4">
+        <v>45161</v>
+      </c>
+      <c r="B259" s="4">
+        <v>45163</v>
+      </c>
+      <c r="C259" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D259" s="9">
+        <v>0</v>
+      </c>
+      <c r="E259" s="7">
+        <v>24665.25</v>
+      </c>
+      <c r="F259" s="8">
+        <f t="shared" si="44"/>
+        <v>102551.03694000001</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="15" customHeight="1">
+      <c r="A260" s="4">
+        <v>45161</v>
+      </c>
+      <c r="B260" s="4">
+        <v>45163</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D260" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E260" s="6">
+        <v>0</v>
+      </c>
+      <c r="F260" s="8">
+        <f t="shared" si="44"/>
+        <v>102536.05694000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="15" customHeight="1">
+      <c r="A261" s="4">
+        <v>45163</v>
+      </c>
+      <c r="B261" s="4">
+        <v>45167</v>
+      </c>
+      <c r="C261" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D261" s="9">
+        <v>44179.68</v>
+      </c>
+      <c r="E261" s="7">
+        <v>0</v>
+      </c>
+      <c r="F261" s="8">
+        <f t="shared" ref="F261:F262" si="45">F260-D261+E261</f>
+        <v>58356.376940000009</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="15" customHeight="1">
+      <c r="A262" s="4">
+        <v>45163</v>
+      </c>
+      <c r="B262" s="4">
+        <v>45167</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D262" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E262" s="6">
+        <v>0</v>
+      </c>
+      <c r="F262" s="8">
+        <f t="shared" si="45"/>
+        <v>58341.396940000006</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A7/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7323" documentId="11_59254FB3F4AABE3ADC949A5AB88E13345563F2D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{384343D8-3D4C-415C-AB92-2235D658B9AC}"/>
+  <xr:revisionPtr revIDLastSave="7355" documentId="11_59254FB3F4AABE3ADC949A5AB88E13345563F2D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0D97E06-1B77-4CBC-A2E7-4BD5E9C0B27C}"/>
   <bookViews>
     <workbookView xWindow="10368" yWindow="1740" windowWidth="13908" windowHeight="9516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="83">
   <si>
     <t>TRANSACT</t>
   </si>
@@ -276,6 +276,12 @@
   </si>
   <si>
     <t>AIMIRT</t>
+  </si>
+  <si>
+    <t>WHART</t>
+  </si>
+  <si>
+    <t>MAM</t>
   </si>
 </sst>
 </file>
@@ -673,11 +679,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G262"/>
+  <dimension ref="A1:G270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F262" sqref="F262"/>
+      <pane ySplit="2" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1"/>
@@ -6072,7 +6078,7 @@
         <v>76550.766940000001</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="15" customHeight="1">
+    <row r="257" spans="1:7" ht="15" customHeight="1">
       <c r="A257" s="4">
         <v>45156</v>
       </c>
@@ -6093,7 +6099,7 @@
         <v>76535.786940000005</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="15" customHeight="1">
+    <row r="258" spans="1:7" ht="15" customHeight="1">
       <c r="A258" s="4" t="s">
         <v>6</v>
       </c>
@@ -6114,7 +6120,7 @@
         <v>77885.786940000005</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="15" customHeight="1">
+    <row r="259" spans="1:7" ht="15" customHeight="1">
       <c r="A259" s="4">
         <v>45161</v>
       </c>
@@ -6135,7 +6141,7 @@
         <v>102551.03694000001</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="15" customHeight="1">
+    <row r="260" spans="1:7" ht="15" customHeight="1">
       <c r="A260" s="4">
         <v>45161</v>
       </c>
@@ -6156,7 +6162,7 @@
         <v>102536.05694000001</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="15" customHeight="1">
+    <row r="261" spans="1:7" ht="15" customHeight="1">
       <c r="A261" s="4">
         <v>45163</v>
       </c>
@@ -6173,11 +6179,11 @@
         <v>0</v>
       </c>
       <c r="F261" s="8">
-        <f t="shared" ref="F261:F262" si="45">F260-D261+E261</f>
+        <f t="shared" ref="F261:F269" si="45">F260-D261+E261</f>
         <v>58356.376940000009</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="15" customHeight="1">
+    <row r="262" spans="1:7" ht="15" customHeight="1">
       <c r="A262" s="4">
         <v>45163</v>
       </c>
@@ -6197,6 +6203,175 @@
         <f t="shared" si="45"/>
         <v>58341.396940000006</v>
       </c>
+    </row>
+    <row r="263" spans="1:7" ht="15" customHeight="1">
+      <c r="A263" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B263" s="4">
+        <v>45170</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D263" s="6">
+        <v>1340</v>
+      </c>
+      <c r="E263" s="6">
+        <v>0</v>
+      </c>
+      <c r="F263" s="8">
+        <f t="shared" si="45"/>
+        <v>57001.396940000006</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="15" customHeight="1">
+      <c r="A264" s="4">
+        <v>45169</v>
+      </c>
+      <c r="B264" s="4">
+        <v>45173</v>
+      </c>
+      <c r="C264" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D264" s="9">
+        <v>0</v>
+      </c>
+      <c r="E264" s="7">
+        <v>29454.61</v>
+      </c>
+      <c r="F264" s="8">
+        <f t="shared" si="45"/>
+        <v>86456.006940000007</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" ht="15" customHeight="1">
+      <c r="A265" s="4">
+        <v>45169</v>
+      </c>
+      <c r="B265" s="4">
+        <v>45173</v>
+      </c>
+      <c r="C265" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D265" s="9">
+        <v>0</v>
+      </c>
+      <c r="E265" s="7">
+        <v>105765.22</v>
+      </c>
+      <c r="F265" s="8">
+        <f t="shared" si="45"/>
+        <v>192221.22694000002</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" ht="15" customHeight="1">
+      <c r="A266" s="4">
+        <v>45169</v>
+      </c>
+      <c r="B266" s="4">
+        <v>45173</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D266" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E266" s="6">
+        <v>0</v>
+      </c>
+      <c r="F266" s="8">
+        <f t="shared" si="45"/>
+        <v>192206.24694000001</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" ht="15" customHeight="1">
+      <c r="A267" s="4">
+        <v>45170</v>
+      </c>
+      <c r="B267" s="4">
+        <v>45174</v>
+      </c>
+      <c r="C267" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D267" s="9">
+        <v>28262.46</v>
+      </c>
+      <c r="E267" s="7">
+        <v>0</v>
+      </c>
+      <c r="F267" s="8">
+        <f t="shared" si="45"/>
+        <v>163943.78694000002</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" ht="15" customHeight="1">
+      <c r="A268" s="4">
+        <v>45170</v>
+      </c>
+      <c r="B268" s="4">
+        <v>45174</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D268" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E268" s="6">
+        <v>0</v>
+      </c>
+      <c r="F268" s="8">
+        <f t="shared" si="45"/>
+        <v>163928.80694000001</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" ht="15" customHeight="1">
+      <c r="A269" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B269" s="4">
+        <v>45175</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D269" s="6">
+        <v>0</v>
+      </c>
+      <c r="E269" s="6">
+        <v>36800</v>
+      </c>
+      <c r="F269" s="8">
+        <f t="shared" si="45"/>
+        <v>200728.80694000001</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" ht="15" customHeight="1">
+      <c r="A270" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B270" s="4">
+        <v>45175</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D270" s="6">
+        <v>6900</v>
+      </c>
+      <c r="E270" s="6">
+        <v>0</v>
+      </c>
+      <c r="F270" s="8">
+        <f t="shared" ref="F270" si="46">F269-D270+E270</f>
+        <v>193828.80694000001</v>
+      </c>
+      <c r="G270" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26821"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A7/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7355" documentId="11_59254FB3F4AABE3ADC949A5AB88E13345563F2D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0D97E06-1B77-4CBC-A2E7-4BD5E9C0B27C}"/>
+  <xr:revisionPtr revIDLastSave="7514" documentId="11_59254FB3F4AABE3ADC949A5AB88E13345563F2D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DB373DB-C329-428A-8ACD-918D377D0704}"/>
   <bookViews>
     <workbookView xWindow="10368" yWindow="1740" windowWidth="13908" windowHeight="9516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="86">
   <si>
     <t>TRANSACT</t>
   </si>
@@ -281,7 +281,16 @@
     <t>WHART</t>
   </si>
   <si>
+    <t>AIMIRT-DIV</t>
+  </si>
+  <si>
     <t>MAM</t>
+  </si>
+  <si>
+    <t>TOA</t>
+  </si>
+  <si>
+    <t>AH-DIV</t>
   </si>
 </sst>
 </file>
@@ -679,11 +688,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G270"/>
+  <dimension ref="A1:G312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
+      <pane ySplit="2" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E312" sqref="E312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1"/>
@@ -6179,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="F261" s="8">
-        <f t="shared" ref="F261:F269" si="45">F260-D261+E261</f>
+        <f t="shared" ref="F261:F262" si="45">F260-D261+E261</f>
         <v>58356.376940000009</v>
       </c>
     </row>
@@ -6205,45 +6214,45 @@
       </c>
     </row>
     <row r="263" spans="1:7" ht="15" customHeight="1">
-      <c r="A263" s="4" t="s">
-        <v>6</v>
+      <c r="A263" s="4">
+        <v>45163</v>
       </c>
       <c r="B263" s="4">
+        <v>45167</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D263" s="6">
+        <v>17.98</v>
+      </c>
+      <c r="E263" s="6">
+        <v>0</v>
+      </c>
+      <c r="F263" s="8">
+        <f t="shared" ref="F263:F303" si="46">F262-D263+E263</f>
+        <v>58323.416940000003</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="15" customHeight="1">
+      <c r="A264" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B264" s="4">
         <v>45170</v>
       </c>
-      <c r="C263" s="5" t="s">
+      <c r="C264" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D263" s="6">
+      <c r="D264" s="6">
         <v>1340</v>
       </c>
-      <c r="E263" s="6">
-        <v>0</v>
-      </c>
-      <c r="F263" s="8">
-        <f t="shared" si="45"/>
-        <v>57001.396940000006</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" ht="15" customHeight="1">
-      <c r="A264" s="4">
-        <v>45169</v>
-      </c>
-      <c r="B264" s="4">
-        <v>45173</v>
-      </c>
-      <c r="C264" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D264" s="9">
-        <v>0</v>
-      </c>
-      <c r="E264" s="7">
-        <v>29454.61</v>
+      <c r="E264" s="6">
+        <v>0</v>
       </c>
       <c r="F264" s="8">
-        <f t="shared" si="45"/>
-        <v>86456.006940000007</v>
+        <f t="shared" si="46"/>
+        <v>56983.416940000003</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="15" customHeight="1">
@@ -6254,18 +6263,19 @@
         <v>45173</v>
       </c>
       <c r="C265" s="13" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="D265" s="9">
         <v>0</v>
       </c>
       <c r="E265" s="7">
-        <v>105765.22</v>
+        <v>29454.61</v>
       </c>
       <c r="F265" s="8">
-        <f t="shared" si="45"/>
-        <v>192221.22694000002</v>
-      </c>
+        <f t="shared" si="46"/>
+        <v>86438.026940000011</v>
+      </c>
+      <c r="G265" s="11"/>
     </row>
     <row r="266" spans="1:7" ht="15" customHeight="1">
       <c r="A266" s="4">
@@ -6274,39 +6284,39 @@
       <c r="B266" s="4">
         <v>45173</v>
       </c>
-      <c r="C266" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D266" s="6">
-        <v>14.98</v>
-      </c>
-      <c r="E266" s="6">
-        <v>0</v>
+      <c r="C266" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D266" s="9">
+        <v>0</v>
+      </c>
+      <c r="E266" s="7">
+        <v>105765.22</v>
       </c>
       <c r="F266" s="8">
-        <f t="shared" si="45"/>
-        <v>192206.24694000001</v>
+        <f t="shared" si="46"/>
+        <v>192203.24694000001</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="15" customHeight="1">
       <c r="A267" s="4">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="B267" s="4">
-        <v>45174</v>
-      </c>
-      <c r="C267" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D267" s="9">
-        <v>28262.46</v>
-      </c>
-      <c r="E267" s="7">
+        <v>45173</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D267" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E267" s="6">
         <v>0</v>
       </c>
       <c r="F267" s="8">
-        <f t="shared" si="45"/>
-        <v>163943.78694000002</v>
+        <f t="shared" si="46"/>
+        <v>192188.26694</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="15" customHeight="1">
@@ -6316,39 +6326,39 @@
       <c r="B268" s="4">
         <v>45174</v>
       </c>
-      <c r="C268" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D268" s="6">
-        <v>14.98</v>
-      </c>
-      <c r="E268" s="6">
+      <c r="C268" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D268" s="9">
+        <v>28262.46</v>
+      </c>
+      <c r="E268" s="7">
         <v>0</v>
       </c>
       <c r="F268" s="8">
-        <f t="shared" si="45"/>
-        <v>163928.80694000001</v>
+        <f t="shared" si="46"/>
+        <v>163925.80694000001</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="15" customHeight="1">
-      <c r="A269" s="4" t="s">
-        <v>6</v>
+      <c r="A269" s="4">
+        <v>45170</v>
       </c>
       <c r="B269" s="4">
-        <v>45175</v>
+        <v>45174</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D269" s="6">
-        <v>0</v>
+        <v>14.98</v>
       </c>
       <c r="E269" s="6">
-        <v>36800</v>
-      </c>
-      <c r="F269" s="8">
-        <f t="shared" si="45"/>
-        <v>200728.80694000001</v>
+        <v>0</v>
+      </c>
+      <c r="F269" s="15">
+        <f t="shared" si="46"/>
+        <v>163910.82694</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="15" customHeight="1">
@@ -6362,16 +6372,900 @@
         <v>82</v>
       </c>
       <c r="D270" s="6">
+        <v>0</v>
+      </c>
+      <c r="E270" s="6">
+        <v>2007</v>
+      </c>
+      <c r="F270" s="8">
+        <f t="shared" si="46"/>
+        <v>165917.82694</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" ht="15" customHeight="1">
+      <c r="A271" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B271" s="4">
+        <v>45175</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D271" s="6">
+        <v>0</v>
+      </c>
+      <c r="E271" s="6">
+        <v>1350</v>
+      </c>
+      <c r="F271" s="8">
+        <f t="shared" si="46"/>
+        <v>167267.82694</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" ht="15" customHeight="1">
+      <c r="A272" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B272" s="4">
+        <v>45175</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D272" s="6">
+        <v>0</v>
+      </c>
+      <c r="E272" s="6">
+        <v>36800</v>
+      </c>
+      <c r="F272" s="8">
+        <f t="shared" si="46"/>
+        <v>204067.82694</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" ht="15" customHeight="1">
+      <c r="A273" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B273" s="4">
+        <v>45175</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D273" s="6">
         <v>6900</v>
       </c>
-      <c r="E270" s="6">
-        <v>0</v>
-      </c>
-      <c r="F270" s="8">
-        <f t="shared" ref="F270" si="46">F269-D270+E270</f>
-        <v>193828.80694000001</v>
-      </c>
-      <c r="G270" s="9"/>
+      <c r="E273" s="6">
+        <v>0</v>
+      </c>
+      <c r="F273" s="15">
+        <f t="shared" si="46"/>
+        <v>197167.82694</v>
+      </c>
+      <c r="G273" s="9"/>
+    </row>
+    <row r="274" spans="1:7" ht="15" customHeight="1">
+      <c r="A274" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B274" s="4">
+        <v>45176</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D274" s="6">
+        <v>0</v>
+      </c>
+      <c r="E274" s="6">
+        <v>6399</v>
+      </c>
+      <c r="F274" s="8">
+        <f t="shared" si="46"/>
+        <v>203566.82694</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" ht="15" customHeight="1">
+      <c r="A275" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B275" s="4">
+        <v>45176</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D275" s="6">
+        <v>0</v>
+      </c>
+      <c r="E275" s="6">
+        <v>5520</v>
+      </c>
+      <c r="F275" s="8">
+        <f t="shared" si="46"/>
+        <v>209086.82694</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" ht="15" customHeight="1">
+      <c r="A276" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B276" s="4">
+        <v>45176</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D276" s="6">
+        <v>0</v>
+      </c>
+      <c r="E276" s="6">
+        <v>5211</v>
+      </c>
+      <c r="F276" s="15">
+        <f t="shared" si="46"/>
+        <v>214297.82694</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" ht="15" customHeight="1">
+      <c r="A277" s="4">
+        <v>45174</v>
+      </c>
+      <c r="B277" s="4">
+        <v>45176</v>
+      </c>
+      <c r="C277" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D277" s="9">
+        <v>40890.370000000003</v>
+      </c>
+      <c r="E277" s="7">
+        <v>0</v>
+      </c>
+      <c r="F277" s="8">
+        <f t="shared" si="46"/>
+        <v>173407.45694</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" ht="15" customHeight="1">
+      <c r="A278" s="4">
+        <v>45174</v>
+      </c>
+      <c r="B278" s="4">
+        <v>45176</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D278" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E278" s="6">
+        <v>0</v>
+      </c>
+      <c r="F278" s="8">
+        <f t="shared" si="46"/>
+        <v>173392.47693999999</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" ht="15" customHeight="1">
+      <c r="A279" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B279" s="4">
+        <v>45177</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D279" s="6">
+        <v>0</v>
+      </c>
+      <c r="E279" s="9">
+        <v>21924</v>
+      </c>
+      <c r="F279" s="8">
+        <f t="shared" si="46"/>
+        <v>195316.47693999999</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" ht="15" customHeight="1">
+      <c r="A280" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B280" s="4">
+        <v>45177</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D280" s="6">
+        <v>0</v>
+      </c>
+      <c r="E280" s="9">
+        <v>1285.2</v>
+      </c>
+      <c r="F280" s="8">
+        <f t="shared" si="46"/>
+        <v>196601.67694</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" ht="15" customHeight="1">
+      <c r="A281" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B281" s="4">
+        <v>45177</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D281" s="6">
+        <v>0</v>
+      </c>
+      <c r="E281" s="9">
+        <v>1350</v>
+      </c>
+      <c r="F281" s="8">
+        <f t="shared" si="46"/>
+        <v>197951.67694</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" ht="15" customHeight="1">
+      <c r="A282" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B282" s="4">
+        <v>45177</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D282" s="6">
+        <v>0</v>
+      </c>
+      <c r="E282" s="9">
+        <v>4860</v>
+      </c>
+      <c r="F282" s="8">
+        <f t="shared" si="46"/>
+        <v>202811.67694</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" ht="15" customHeight="1">
+      <c r="A283" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B283" s="4">
+        <v>45177</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D283" s="6">
+        <v>0</v>
+      </c>
+      <c r="E283" s="9">
+        <v>6750</v>
+      </c>
+      <c r="F283" s="8">
+        <f t="shared" si="46"/>
+        <v>209561.67694</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" ht="15" customHeight="1">
+      <c r="A284" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B284" s="4">
+        <v>45177</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D284" s="6">
+        <v>6264</v>
+      </c>
+      <c r="E284" s="6">
+        <v>0</v>
+      </c>
+      <c r="F284" s="8">
+        <f t="shared" si="46"/>
+        <v>203297.67694</v>
+      </c>
+      <c r="G284" s="9"/>
+    </row>
+    <row r="285" spans="1:7" ht="15" customHeight="1">
+      <c r="A285" s="4">
+        <v>45175</v>
+      </c>
+      <c r="B285" s="4">
+        <v>45177</v>
+      </c>
+      <c r="C285" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D285" s="9">
+        <v>26057.59</v>
+      </c>
+      <c r="E285" s="7">
+        <v>0</v>
+      </c>
+      <c r="F285" s="8">
+        <f t="shared" si="46"/>
+        <v>177240.08694000001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" ht="15" customHeight="1">
+      <c r="A286" s="4">
+        <v>45175</v>
+      </c>
+      <c r="B286" s="4">
+        <v>45177</v>
+      </c>
+      <c r="C286" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D286" s="9">
+        <v>0</v>
+      </c>
+      <c r="E286" s="7">
+        <v>29574.36</v>
+      </c>
+      <c r="F286" s="8">
+        <f t="shared" si="46"/>
+        <v>206814.44693999999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" ht="15" customHeight="1">
+      <c r="A287" s="4">
+        <v>45175</v>
+      </c>
+      <c r="B287" s="4">
+        <v>45177</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D287" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E287" s="6">
+        <v>0</v>
+      </c>
+      <c r="F287" s="8">
+        <f t="shared" si="46"/>
+        <v>206799.46693999998</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" ht="15" customHeight="1">
+      <c r="A288" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B288" s="4">
+        <v>45178</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D288" s="6">
+        <v>20</v>
+      </c>
+      <c r="E288" s="6">
+        <v>0</v>
+      </c>
+      <c r="F288" s="15">
+        <f t="shared" si="46"/>
+        <v>206779.46693999998</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" ht="15" customHeight="1">
+      <c r="A289" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B289" s="4">
+        <v>45180</v>
+      </c>
+      <c r="C289" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D289" s="6">
+        <v>0</v>
+      </c>
+      <c r="E289" s="9">
+        <v>772.8</v>
+      </c>
+      <c r="F289" s="8">
+        <f t="shared" si="46"/>
+        <v>207552.26693999997</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" ht="15" customHeight="1">
+      <c r="A290" s="4">
+        <v>45176</v>
+      </c>
+      <c r="B290" s="4">
+        <v>45180</v>
+      </c>
+      <c r="C290" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D290" s="9">
+        <v>19843.86</v>
+      </c>
+      <c r="E290" s="7">
+        <v>0</v>
+      </c>
+      <c r="F290" s="8">
+        <f t="shared" si="46"/>
+        <v>187708.40693999996</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" ht="15" customHeight="1">
+      <c r="A291" s="4">
+        <v>45176</v>
+      </c>
+      <c r="B291" s="4">
+        <v>45180</v>
+      </c>
+      <c r="C291" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D291" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E291" s="6">
+        <v>0</v>
+      </c>
+      <c r="F291" s="8">
+        <f t="shared" si="46"/>
+        <v>187693.42693999995</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="15" customHeight="1">
+      <c r="A292" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B292" s="4">
+        <v>45181</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D292" s="6">
+        <v>0</v>
+      </c>
+      <c r="E292" s="9">
+        <v>2160</v>
+      </c>
+      <c r="F292" s="8">
+        <f t="shared" si="46"/>
+        <v>189853.42693999995</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" ht="15" customHeight="1">
+      <c r="A293" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B293" s="4">
+        <v>45182</v>
+      </c>
+      <c r="C293" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D293" s="6">
+        <v>0</v>
+      </c>
+      <c r="E293" s="9">
+        <v>1620</v>
+      </c>
+      <c r="F293" s="8">
+        <f t="shared" si="46"/>
+        <v>191473.42693999995</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" ht="15" customHeight="1">
+      <c r="A294" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B294" s="4">
+        <v>45182</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D294" s="6">
+        <v>0</v>
+      </c>
+      <c r="E294" s="9">
+        <v>6480</v>
+      </c>
+      <c r="F294" s="8">
+        <f t="shared" si="46"/>
+        <v>197953.42693999995</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" ht="15" customHeight="1">
+      <c r="A295" s="4">
+        <v>45180</v>
+      </c>
+      <c r="B295" s="4">
+        <v>45182</v>
+      </c>
+      <c r="C295" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D295" s="9">
+        <v>19843.86</v>
+      </c>
+      <c r="E295" s="7">
+        <v>0</v>
+      </c>
+      <c r="F295" s="8">
+        <f t="shared" si="46"/>
+        <v>178109.56693999993</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" ht="15" customHeight="1">
+      <c r="A296" s="4">
+        <v>45180</v>
+      </c>
+      <c r="B296" s="4">
+        <v>45182</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D296" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E296" s="6">
+        <v>0</v>
+      </c>
+      <c r="F296" s="8">
+        <f t="shared" si="46"/>
+        <v>178094.58693999992</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" ht="15" customHeight="1">
+      <c r="A297" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B297" s="4">
+        <v>45183</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D297" s="6">
+        <v>0</v>
+      </c>
+      <c r="E297" s="9">
+        <v>7616.7</v>
+      </c>
+      <c r="F297" s="8">
+        <f t="shared" si="46"/>
+        <v>185711.28693999993</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" ht="15" customHeight="1">
+      <c r="A298" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B298" s="4">
+        <v>45183</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D298" s="6">
+        <v>0</v>
+      </c>
+      <c r="E298" s="9">
+        <v>1350</v>
+      </c>
+      <c r="F298" s="8">
+        <f t="shared" si="46"/>
+        <v>187061.28693999993</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="15" customHeight="1">
+      <c r="A299" s="4">
+        <v>45182</v>
+      </c>
+      <c r="B299" s="4">
+        <v>45184</v>
+      </c>
+      <c r="C299" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D299" s="9">
+        <v>45300.11</v>
+      </c>
+      <c r="E299" s="7">
+        <v>0</v>
+      </c>
+      <c r="F299" s="8">
+        <f t="shared" si="46"/>
+        <v>141761.17693999992</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" ht="15" customHeight="1">
+      <c r="A300" s="4">
+        <v>45182</v>
+      </c>
+      <c r="B300" s="4">
+        <v>45184</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D300" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E300" s="6">
+        <v>0</v>
+      </c>
+      <c r="F300" s="8">
+        <f t="shared" si="46"/>
+        <v>141746.19693999991</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" ht="15" customHeight="1">
+      <c r="A301" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B301" s="4">
+        <v>45184</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D301" s="6">
+        <v>432</v>
+      </c>
+      <c r="E301" s="6">
+        <v>0</v>
+      </c>
+      <c r="F301" s="15">
+        <f t="shared" si="46"/>
+        <v>141314.19693999991</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" ht="15" customHeight="1">
+      <c r="A302" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B302" s="4">
+        <v>45188</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D302" s="6">
+        <v>0</v>
+      </c>
+      <c r="E302" s="9">
+        <v>6160.5</v>
+      </c>
+      <c r="F302" s="8">
+        <f t="shared" si="46"/>
+        <v>147474.69693999991</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="15" customHeight="1">
+      <c r="A303" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B303" s="4">
+        <v>45188</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D303" s="6">
+        <v>0</v>
+      </c>
+      <c r="E303" s="9">
+        <v>2018</v>
+      </c>
+      <c r="F303" s="8">
+        <f t="shared" si="46"/>
+        <v>149492.69693999991</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" ht="15" customHeight="1">
+      <c r="A304" s="4">
+        <v>45191</v>
+      </c>
+      <c r="B304" s="4">
+        <v>45195</v>
+      </c>
+      <c r="C304" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D304" s="9">
+        <v>36681.06</v>
+      </c>
+      <c r="E304" s="7">
+        <v>0</v>
+      </c>
+      <c r="F304" s="8">
+        <f t="shared" ref="F304:F305" si="47">F303-D304+E304</f>
+        <v>112811.63693999991</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" ht="15" customHeight="1">
+      <c r="A305" s="4">
+        <v>45191</v>
+      </c>
+      <c r="B305" s="4">
+        <v>45195</v>
+      </c>
+      <c r="C305" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D305" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E305" s="6">
+        <v>0</v>
+      </c>
+      <c r="F305" s="8">
+        <f t="shared" si="47"/>
+        <v>112796.65693999991</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" ht="15" customHeight="1">
+      <c r="A306" s="4">
+        <v>45194</v>
+      </c>
+      <c r="B306" s="4">
+        <v>45196</v>
+      </c>
+      <c r="C306" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D306" s="9">
+        <v>0</v>
+      </c>
+      <c r="E306" s="7">
+        <v>48093.25</v>
+      </c>
+      <c r="F306" s="8">
+        <f t="shared" ref="F306:F312" si="48">F305-D306+E306</f>
+        <v>160889.9069399999</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" ht="15" customHeight="1">
+      <c r="A307" s="4">
+        <v>45194</v>
+      </c>
+      <c r="B307" s="4">
+        <v>45196</v>
+      </c>
+      <c r="C307" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D307" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E307" s="6">
+        <v>0</v>
+      </c>
+      <c r="F307" s="15">
+        <f t="shared" si="48"/>
+        <v>160874.92693999989</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" ht="15" customHeight="1">
+      <c r="A308" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B308" s="4">
+        <v>45196</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D308" s="6">
+        <v>20400</v>
+      </c>
+      <c r="E308" s="6">
+        <v>0</v>
+      </c>
+      <c r="F308" s="8">
+        <f t="shared" si="48"/>
+        <v>140474.92693999989</v>
+      </c>
+      <c r="G308" s="9"/>
+    </row>
+    <row r="309" spans="1:7" ht="15" customHeight="1">
+      <c r="A309" s="4">
+        <v>45195</v>
+      </c>
+      <c r="B309" s="4">
+        <v>45197</v>
+      </c>
+      <c r="C309" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D309" s="9">
+        <v>45701</v>
+      </c>
+      <c r="E309" s="7">
+        <v>0</v>
+      </c>
+      <c r="F309" s="8">
+        <f t="shared" si="48"/>
+        <v>94773.926939999888</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" ht="15" customHeight="1">
+      <c r="A310" s="4">
+        <v>45195</v>
+      </c>
+      <c r="B310" s="4">
+        <v>45197</v>
+      </c>
+      <c r="C310" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D310" s="9">
+        <v>40088.6</v>
+      </c>
+      <c r="E310" s="7">
+        <v>0</v>
+      </c>
+      <c r="F310" s="8">
+        <f t="shared" si="48"/>
+        <v>54685.32693999989</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" ht="15" customHeight="1">
+      <c r="A311" s="4">
+        <v>45195</v>
+      </c>
+      <c r="B311" s="4">
+        <v>45197</v>
+      </c>
+      <c r="C311" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D311" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E311" s="6">
+        <v>0</v>
+      </c>
+      <c r="F311" s="8">
+        <f t="shared" si="48"/>
+        <v>54670.346939999887</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" ht="15" customHeight="1">
+      <c r="A312" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B312" s="4">
+        <v>45201</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D312" s="6">
+        <v>1430.2</v>
+      </c>
+      <c r="E312" s="6">
+        <v>0</v>
+      </c>
+      <c r="F312" s="8">
+        <f t="shared" si="48"/>
+        <v>53240.14693999989</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
